--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="470">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
   <si>
     <t xml:space="preserve">内                       国 </t>
   </si>
@@ -79,9 +79,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">You have </t>
     </r>
@@ -89,9 +88,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>&lt;color=#FF8A01&gt;{0}&lt;/color&gt;</t>
     </r>
@@ -99,9 +97,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> tickets</t>
     </r>
@@ -144,9 +141,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">You must have </t>
     </r>
@@ -154,9 +150,8 @@
       <rPr>
         <sz val="11"/>
         <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>&lt;color=#F4D10F&gt;{0}&lt;/color&gt;</t>
     </r>
@@ -164,9 +159,8 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> tickets to participate in the Lucky Draw.</t>
     </r>
@@ -532,6 +526,18 @@
     <t>アバター</t>
   </si>
   <si>
+    <t>Me_New</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>новый</t>
+  </si>
+  <si>
+    <t>新しい</t>
+  </si>
+  <si>
     <t>Me_Unlock</t>
   </si>
   <si>
@@ -784,13 +790,13 @@
     <t>Task_Des_BuyTicketByGoldOnce</t>
   </si>
   <si>
-    <t>Cost{0} coins</t>
+    <t>Cost {0} coins</t>
   </si>
   <si>
     <t>Стоимость {0} монет</t>
   </si>
   <si>
-    <t>{0}コインを過ごします</t>
+    <t>{0} コインを過ごします</t>
   </si>
   <si>
     <t>Task_Des_BuyTicketByRvOnce</t>
@@ -1508,6 +1514,180 @@
   </si>
   <si>
     <t>歴史的な記録を発見し、データが更新されています。</t>
+  </si>
+  <si>
+    <t>Rules_PlaySlots</t>
+  </si>
+  <si>
+    <t>1.Spin and match 3 X symbols to win coin or other reward.
+2.Google are not sponsor are they involved in any Hi Spin sweepstakes or prize draws.
+3.Hi Spin is a sweepstakes application.
+4.For offical rules, please see:</t>
+  </si>
+  <si>
+    <t>1.Spin и матч 3 X символов, чтобы выиграть монеты или иное вознаграждение.
+2.Google не является спонсором, если они участвуют в розыгрышах или розыгрышах призов Hi Spin.
+3.Hi Спин является приложением тотализаторов.
+4.Официальные правила см.</t>
+  </si>
+  <si>
+    <t>1.3つのXシンボルをスピンして一致させ、コインまたはその他の報酬を獲得します。
+2.Googleはスポンサーではなく、HiSpinの懸賞や賞品の抽選に参加しています。
+3.Hiスピンは懸賞アプリです。
+4.公式規則については、以下を参照してください。</t>
+  </si>
+  <si>
+    <t>Rules_PlaySlotsTitle</t>
+  </si>
+  <si>
+    <t>How to win</t>
+  </si>
+  <si>
+    <t>Как победить</t>
+  </si>
+  <si>
+    <t>勝つ方法</t>
+  </si>
+  <si>
+    <t>Rules_PlaySlotsBottom</t>
+  </si>
+  <si>
+    <t>TERMS &amp; CONDITIONS</t>
+  </si>
+  <si>
+    <t>СРОКИ И УСЛОВИЯ</t>
+  </si>
+  <si>
+    <t>Rules_BettingFront</t>
+  </si>
+  <si>
+    <t>1.There is a prize of 1,000 USD in the LuckyDraw every day.
+2.You must have {0} tickets to participate in the Lucky Draw. More tickets you have, more chance to win.
+3.Every day at UTC 08:00:00, all your tickets will be automatically put into the prize pool, and  the Lucky Draw will be done.
+4.There will be many winners with different bonus.</t>
+  </si>
+  <si>
+    <t>1.Существует приз 1000 долларов в LuckyDraw каждый день.
+2.Вы должны иметь {0} билетов на участие в розыгрыше. Больше билетов - больше шансов выиграть.
+3.Каждый день в UTC 08:00:00, все билеты будут автоматически помещаются в призовой фонд, а Лаки Draw будет сделано.
+4.Будет много победителей с разными бонусами.</t>
+  </si>
+  <si>
+    <t>1.LuckyDrawには毎日1,000米ドルの賞金があります。
+2.ラッキードローに参加するには、{0}枚のチケットが必要です。 あなたが持っているより多くのチケット、より多くのチャンス。
+3.毎日08：00：00UTCに、すべての抽選チケットが自動的に賞金プールに入れられますとドローが完了します。
+4.別のボーナスを持つ多くの勝者があるでしょう。</t>
+  </si>
+  <si>
+    <t>Rules_BettingBehind</t>
+  </si>
+  <si>
+    <t>1st $200
+2nd - 3th prize $100
+4nd - 16th prize $20
+17nd - 50th prize $10</t>
+  </si>
+  <si>
+    <t>1-й $ 200
+2-3 приз $ 100
+4-16 приз $ 20
+17-50 приз $ 10</t>
+  </si>
+  <si>
+    <t>最初の$ 200
+2位-3位賞金$ 100
+4位-16位賞金$ 20
+17位-50位賞金$ 10</t>
+  </si>
+  <si>
+    <t>Rules_InviteFrineds</t>
+  </si>
+  <si>
+    <t>1.You can earn points by friends watch ad and complete tasks, and you can also get points from a friends of friends.
+&lt;color=#FFE200&gt;We will give 75% of AD revenue to players. So, You will earn 50% of your close friends’ AD revenue and 25% of your unfamiliar friends’ AD revenue.&lt;/color&gt;
+2.Every day UTC 10:00:00, you can review yesterday’s income from friends.
+3.Points can be exchanged for money, 100,000 points equals 1 USD.
+4.&lt;color=#FFE200&gt;You can earn HUGE Pts by completing the tasks in the offer.&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1.Вы можете зарабатывать очки, когда друзья смотрят рекламу и выполняют задания, а также вы можете получать очки от друзей друзей.
+&lt;color=#FFE200&gt; Мы будем отдавать игрокам 75% дохода от рекламы. Таким образом, вы будете получать 50% дохода от рекламы ваших близких друзей и 25% дохода от рекламы незнакомых друзей.&lt;/color&gt;
+2.Каждый день по UTC 10:00:00 вы можете просматривать вчерашний доход от друзей.
+3.Points можно обменять на деньги, 100000 точек составляет 1 USD.
+4.&lt;color=#FFE200&gt;You может заработать ОГРОМНЫЙ оч, выполнив задачи в предложении. &lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>1.友達が広告を見てタスクを完了することでポイントを獲得できます。また、友達の友達からポイントを獲得することもできます。
+&lt;color=＃FFE200&gt;2.私たちは、プレイヤーに広告収入の75％を与えます。 つまり、親しい友人のAD収益の50％と、なじみのない友人のAD収益の25％を獲得できます。&lt;/color&gt;
+3.毎日UTC10：00：00、友達からの昨日の収入を確認できます。
+ポイントはお金と交換できます。100,000ポイントは1米ドルに相当します。
+4.&lt;color=＃FFE200&gt;オファーのタスクを完了すると、巨大なポイントを獲得できます。&lt;/color&gt;</t>
+  </si>
+  <si>
+    <t>Rules_Me</t>
+  </si>
+  <si>
+    <t>1.Play slots to get experience for upgrade level.
+2.Upgrade the level will unlock new avatars and get tickets, also increase the multiplier of getting tickets.
+3.The ticket multiplier is used to increase tickets obtained by slots.</t>
+  </si>
+  <si>
+    <t>1.Играйте в слоты, чтобы получить опыт для повышения уровня.
+2.Повышение уровня будет разблокировать новые аватары и получить билеты, а также увеличить множитель получения билетов.
+3.Мультипликатор билет используется для увеличения билетов, полученных по слотам «.</t>
+  </si>
+  <si>
+    <t>1.「スロットをプレイして、アップグレードレベルの経験を積んでください。
+2.アップグレードレベルは、新しいアバターのロックを解除し、チケットを取得、またチケットを得るための乗数を増加します。
+3.チケット乗数は、スロットによって取得されるチケットを増やすために使用されます。」</t>
+  </si>
+  <si>
+    <t>Rules_Cashout</t>
+  </si>
+  <si>
+    <t>1.Win the jackpot and other cash prizes in the Lucky Draw.
+2.Compete every day in the task and win cash directly!
+3.Refer friends and get direct cash and lots of tickets!</t>
+  </si>
+  <si>
+    <t>1.Выиграйте джекпот и другие денежные призы в Lucky Draw.
+2.Compete каждый день в задаче и выиграть наличные деньги напрямую!
+3.Приглашайте друзей и получайте наличные и много билетов!</t>
+  </si>
+  <si>
+    <t>1.ラッキードローでジャックポットとその他の賞金を獲得します。
+2.タスクで毎日競争し、直接現金を獲得してください！
+3.友達を紹介して、入現金とその興を手に付けましょう！</t>
+  </si>
+  <si>
+    <t>Rules_CashoutTitle</t>
+  </si>
+  <si>
+    <t>HOW TO MAKE MONEY</t>
+  </si>
+  <si>
+    <t>КАК ЗАРАБОТАТЬ</t>
+  </si>
+  <si>
+    <t>お金を稼ぐ方法</t>
+  </si>
+  <si>
+    <t>Rules_Offerwall</t>
+  </si>
+  <si>
+    <t>1.Complete the sponsor's task and get a lot of points.
+2.After completing the task, the sponsor will review the results and increase your points as soon as possible. It may take 1-3 days.
+3.If your close friends complete the task, you will earn extra 50% points, and extra 25%  from unfamiliar friends.</t>
+  </si>
+  <si>
+    <t>1.Complete задача спонсора и получить много очков.
+2.После завершения задания, спонсор обзор результатов и увеличить ваши очки как можно скорее. Это может занять 1-3 дня.
+3.Если ваши близкие друзья выполнят задание, вы получите дополнительные 50% очков и дополнительные 25% от незнакомых друзей.</t>
+  </si>
+  <si>
+    <t>1.スポンサーのタスクを完了し、多くのポイントを獲得します。
+2.タスクの完了後、スポンサーは結果を確認し、できるだけ早くポイントを増やします。 1〜3日かかる場合があります。
+3.親しい友人がタスクを完了すると、50％のポイントが追加され、見知らぬ友人からは25％の追加ポイントが獲得されます。</t>
   </si>
 </sst>
 </file>
@@ -1515,12 +1695,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1530,14 +1710,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1551,11 +1730,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1566,23 +1767,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1603,33 +1798,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1637,14 +1807,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1666,6 +1828,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1673,11 +1851,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1686,6 +1871,126 @@
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1701,49 +2006,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1755,13 +2030,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1773,103 +2048,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1927,30 +2112,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1968,10 +2129,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2003,12 +2162,38 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2017,10 +2202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2029,137 +2214,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2175,26 +2360,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2280,7 +2480,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="330835" y="12065"/>
-          <a:ext cx="1914525" cy="523875"/>
+          <a:ext cx="1914525" cy="638175"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2323,8 +2523,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5715" y="176530"/>
-          <a:ext cx="2242185" cy="356870"/>
+          <a:off x="5715" y="214630"/>
+          <a:ext cx="2242185" cy="433070"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2637,1741 +2837,1900 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112:D124"/>
+      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="92.625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="3" customWidth="1"/>
     <col min="3" max="3" width="104.458333333333" style="4" customWidth="1"/>
     <col min="4" max="4" width="72.4916666666667" style="4" customWidth="1"/>
     <col min="5" max="5" width="16.8583333333333" style="4" customWidth="1"/>
     <col min="6" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" ht="16.5" spans="1:4">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" ht="16.5" spans="1:4">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="17.25" spans="1:4">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="2" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+    </row>
+    <row r="4" ht="16.5" spans="1:4">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="2" t="s">
+    <row r="5" ht="16.5" spans="1:4">
+      <c r="A5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="2" t="s">
+    <row r="6" ht="16.5" spans="1:4">
+      <c r="A6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="16.5" spans="1:4">
+      <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="2" t="s">
+    <row r="8" ht="16.5" spans="1:4">
+      <c r="A8" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="2" t="s">
+    <row r="9" ht="16.5" spans="1:4">
+      <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="2" t="s">
+    <row r="10" ht="16.5" spans="1:4">
+      <c r="A10" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="16.5" spans="1:4">
+      <c r="A11" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="16.5" spans="1:4">
+      <c r="A12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="7" t="s">
+      <c r="C12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="2" t="s">
+    <row r="13" ht="16.5" spans="1:4">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="2" t="s">
+    <row r="14" ht="16.5" spans="1:4">
+      <c r="A14" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="2" t="s">
+    <row r="15" ht="16.5" spans="1:4">
+      <c r="A15" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="2" t="s">
+    <row r="16" ht="16.5" spans="1:4">
+      <c r="A16" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="7" t="s">
+      <c r="C16" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2" t="s">
+    <row r="17" ht="16.5" spans="1:4">
+      <c r="A17" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="2" t="s">
+    <row r="18" ht="16.5" spans="1:4">
+      <c r="A18" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="7" t="s">
+      <c r="C18" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="11" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="2" t="s">
+    <row r="19" ht="16.5" spans="1:4">
+      <c r="A19" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="11" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="2" t="s">
+    <row r="20" ht="16.5" spans="1:4">
+      <c r="A20" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="7" t="s">
+      <c r="C20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="11" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="2" t="s">
+    <row r="21" ht="16.5" spans="1:4">
+      <c r="A21" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="11" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="2" t="s">
+    <row r="22" ht="16.5" spans="1:4">
+      <c r="A22" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="2" t="s">
+    <row r="23" ht="16.5" spans="1:4">
+      <c r="A23" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
+    <row r="24" ht="16.5" spans="1:4">
+      <c r="A24" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="11" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="2" t="s">
+    <row r="25" ht="16.5" spans="1:4">
+      <c r="A25" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="11" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="2" t="s">
+    <row r="26" ht="16.5" spans="1:4">
+      <c r="A26" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="7" t="s">
+      <c r="C26" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="11" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="2" t="s">
+    <row r="27" ht="16.5" spans="1:4">
+      <c r="A27" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C27" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
+    <row r="28" ht="16.5" spans="1:4">
+      <c r="A28" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C28" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="11" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="2" t="s">
+    <row r="29" ht="16.5" spans="1:4">
+      <c r="A29" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="7" t="s">
+      <c r="C29" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="11" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="2" t="s">
+    <row r="30" ht="16.5" spans="1:4">
+      <c r="A30" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="C30" s="7" t="s">
+      <c r="C30" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="11" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="2" t="s">
+    <row r="31" ht="16.5" spans="1:4">
+      <c r="A31" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="2" t="s">
+    <row r="32" ht="16.5" spans="1:4">
+      <c r="A32" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="C32" s="7" t="s">
+      <c r="C32" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="11" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="33" ht="40.5" spans="1:4">
-      <c r="A33" s="2" t="s">
+    <row r="33" ht="33" spans="1:4">
+      <c r="A33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="2" t="s">
+    <row r="34" ht="16.5" spans="1:4">
+      <c r="A34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C34" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="2" t="s">
+    <row r="35" ht="16.5" spans="1:4">
+      <c r="A35" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
+    <row r="36" ht="16.5" spans="1:4">
+      <c r="A36" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C36" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="11" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
+    <row r="37" ht="16.5" spans="1:4">
+      <c r="A37" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
+    <row r="38" ht="16.5" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C38" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="11" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="2" t="s">
+    <row r="39" ht="16.5" spans="1:4">
+      <c r="A39" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="7" t="s">
+      <c r="C39" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="11" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="2" t="s">
+    <row r="40" ht="16.5" spans="1:4">
+      <c r="A40" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="C40" s="7" t="s">
+      <c r="C40" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="11" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+    <row r="41" ht="16.5" spans="1:4">
+      <c r="A41" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C41" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="11" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+    <row r="42" ht="16.5" spans="1:4">
+      <c r="A42" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="C42" s="7" t="s">
+      <c r="C42" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="14" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
+    <row r="43" ht="16.5" spans="1:4">
+      <c r="A43" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="C43" s="7" t="s">
+      <c r="C43" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="11" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+    <row r="44" ht="16.5" spans="1:4">
+      <c r="A44" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="C44" s="7" t="s">
+      <c r="C44" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="D44" s="7" t="s">
+      <c r="D44" s="11" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
+    <row r="45" ht="16.5" spans="1:4">
+      <c r="A45" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C45" s="7" t="s">
+      <c r="C45" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="7" t="s">
+      <c r="D45" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+    <row r="46" ht="16.5" spans="1:4">
+      <c r="A46" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="C46" s="7" t="s">
+      <c r="C46" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
+    <row r="47" ht="16.5" spans="1:4">
+      <c r="A47" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="7" t="s">
+      <c r="C47" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="D47" s="7" t="s">
+      <c r="D47" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
+    <row r="48" ht="16.5" spans="1:4">
+      <c r="A48" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="10" t="s">
         <v>176</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="11" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
+    <row r="49" ht="16.5" spans="1:4">
+      <c r="A49" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="C49" s="7" t="s">
+      <c r="C49" s="14" t="s">
         <v>181</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
+    <row r="50" ht="16.5" spans="1:4">
+      <c r="A50" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C50" s="7" t="s">
+      <c r="C50" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="D50" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
+      <c r="D50" s="11" t="s">
         <v>186</v>
       </c>
-      <c r="B51" s="3" t="s">
+    </row>
+    <row r="51" ht="16.5" spans="1:4">
+      <c r="A51" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="B51" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="D51" s="7" t="s">
+      <c r="C51" s="11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
+      <c r="D51" s="11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" ht="16.5" spans="1:4">
+      <c r="A52" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="11" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
+    <row r="53" ht="16.5" spans="1:4">
+      <c r="A53" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C53" s="7" t="s">
+      <c r="C53" s="14" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="7" t="s">
+      <c r="D53" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
+    <row r="54" ht="16.5" spans="1:4">
+      <c r="A54" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="C54" s="7" t="s">
+      <c r="C54" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D54" s="11" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
+    <row r="55" ht="16.5" spans="1:4">
+      <c r="A55" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="C55" s="7" t="s">
+      <c r="C55" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D55" s="11" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
+    <row r="56" ht="16.5" spans="1:4">
+      <c r="A56" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="15" t="s">
         <v>207</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C56" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D56" s="7" t="s">
+      <c r="D56" s="11" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
+    <row r="57" ht="16.5" spans="1:4">
+      <c r="A57" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="15" t="s">
         <v>211</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C57" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D57" s="11" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="2" t="s">
+    <row r="58" ht="16.5" spans="1:4">
+      <c r="A58" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C58" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="11" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+    <row r="59" ht="16.5" spans="1:4">
+      <c r="A59" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C59" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D59" s="11" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+    <row r="60" ht="16.5" spans="1:4">
+      <c r="A60" s="9" t="s">
         <v>222</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="C60" s="7" t="s">
+      <c r="C60" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="D60" s="7" t="s">
+      <c r="D60" s="11" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+    <row r="61" ht="16.5" spans="1:4">
+      <c r="A61" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="C61" s="7" t="s">
+      <c r="C61" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="11" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
+    <row r="62" ht="16.5" spans="1:4">
+      <c r="A62" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="15" t="s">
         <v>231</v>
       </c>
-      <c r="C62" s="7" t="s">
+      <c r="C62" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="D62" s="7" t="s">
+      <c r="D62" s="11" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
+    <row r="63" ht="16.5" spans="1:4">
+      <c r="A63" s="9" t="s">
         <v>234</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="7" t="s">
+      <c r="C63" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="D63" s="7" t="s">
+      <c r="D63" s="11" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
+    <row r="64" ht="16.5" spans="1:4">
+      <c r="A64" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="C64" s="7" t="s">
+      <c r="C64" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D64" s="11" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
+    <row r="65" ht="16.5" spans="1:4">
+      <c r="A65" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="C65" s="7" t="s">
+      <c r="B65" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="D65" s="7" t="s">
+      <c r="C65" s="11" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
+      <c r="D65" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B66" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="C66" s="7" t="s">
+    </row>
+    <row r="66" ht="16.5" spans="1:4">
+      <c r="A66" s="9" t="s">
         <v>246</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="B66" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" s="11" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
+      <c r="D66" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="B67" s="3" t="s">
+    </row>
+    <row r="67" ht="16.5" spans="1:4">
+      <c r="A67" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C67" s="7" t="s">
+      <c r="B67" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="C67" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="11" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
+    <row r="68" ht="16.5" spans="1:4">
+      <c r="A68" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="B68" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="C68" s="7" t="s">
+      <c r="B68" s="10" t="s">
         <v>253</v>
       </c>
-      <c r="D68" s="7" t="s">
+      <c r="C68" s="11" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
+      <c r="D68" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="C69" s="7" t="s">
+    </row>
+    <row r="69" ht="16.5" spans="1:4">
+      <c r="A69" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="B69" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C69" s="11" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+      <c r="D69" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="B70" s="3" t="s">
+    </row>
+    <row r="70" ht="16.5" spans="1:4">
+      <c r="A70" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="C70" s="7" t="s">
+      <c r="B70" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="D70" s="7" t="s">
+      <c r="C70" s="11" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
+      <c r="D70" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="B71" s="3" t="s">
+    </row>
+    <row r="71" ht="16.5" spans="1:4">
+      <c r="A71" s="9" t="s">
         <v>262</v>
       </c>
-      <c r="C71" s="7" t="s">
+      <c r="B71" s="10" t="s">
         <v>263</v>
       </c>
-      <c r="D71" s="7" t="s">
+      <c r="C71" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" s="11" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
+    <row r="72" ht="16.5" spans="1:4">
+      <c r="A72" s="9" t="s">
         <v>265</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="C72" s="7" t="s">
+      <c r="C72" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D72" s="7" t="s">
+      <c r="D72" s="11" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
+    <row r="73" ht="16.5" spans="1:4">
+      <c r="A73" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="C73" s="7" t="s">
+      <c r="C73" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="D73" s="7" t="s">
+      <c r="D73" s="11" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
+    <row r="74" ht="16.5" spans="1:4">
+      <c r="A74" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="C74" s="7" t="s">
+      <c r="C74" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D74" s="7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
+      <c r="D74" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="B75" s="3" t="s">
+    </row>
+    <row r="75" ht="16.5" spans="1:4">
+      <c r="A75" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="C75" s="7" t="s">
+      <c r="B75" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="D75" s="7" t="s">
+      <c r="C75" s="11" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
+      <c r="D75" s="11" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="76" ht="16.5" spans="1:4">
+      <c r="A76" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="B76" s="3" t="s">
+      <c r="B76" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="C76" s="7" t="s">
+      <c r="C76" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D76" s="7" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
+      <c r="D76" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="B77" s="3" t="s">
+    </row>
+    <row r="77" ht="16.5" spans="1:4">
+      <c r="A77" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="B77" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="C77" s="11" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
+      <c r="D77" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" ht="16.5" spans="1:4">
+      <c r="A78" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="B78" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="C78" s="7" t="s">
+      <c r="C78" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D78" s="7" t="s">
+      <c r="D78" s="11" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
+    <row r="79" ht="16.5" spans="1:4">
+      <c r="A79" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="B79" s="3" t="s">
+      <c r="B79" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="C79" s="7" t="s">
+      <c r="C79" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D79" s="7" t="s">
+      <c r="D79" s="11" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
+    <row r="80" ht="16.5" spans="1:4">
+      <c r="A80" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="B80" s="3" t="s">
+      <c r="B80" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="C80" s="7" t="s">
+      <c r="C80" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D80" s="7" t="s">
+      <c r="D80" s="11" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
+    <row r="81" ht="16.5" spans="1:4">
+      <c r="A81" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="B81" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="C81" s="7" t="s">
+      <c r="B81" s="10" t="s">
         <v>300</v>
       </c>
-      <c r="D81" s="7" t="s">
+      <c r="C81" s="11" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
+      <c r="D81" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B82" s="3" t="s">
+    </row>
+    <row r="82" ht="16.5" spans="1:4">
+      <c r="A82" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="B82" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="C82" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D82" s="11" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="83" ht="54" spans="1:4">
-      <c r="A83" s="2" t="s">
+    <row r="83" ht="16.5" spans="1:4">
+      <c r="A83" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="10" t="s">
         <v>307</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="C83" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="D83" s="11" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="84" ht="27" spans="1:4">
-      <c r="A84" s="2" t="s">
+    <row r="84" ht="66" spans="1:4">
+      <c r="A84" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="C84" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="D84" s="13" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
+    <row r="85" ht="33" spans="1:4">
+      <c r="A85" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="12" t="s">
         <v>315</v>
       </c>
-      <c r="C85" s="7" t="s">
+      <c r="C85" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="D85" s="7" t="s">
+      <c r="D85" s="13" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
+    <row r="86" ht="16.5" spans="1:4">
+      <c r="A86" s="9" t="s">
         <v>318</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="C86" s="7" t="s">
+      <c r="C86" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="D86" s="7" t="s">
+      <c r="D86" s="11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
+    <row r="87" ht="16.5" spans="1:4">
+      <c r="A87" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="C87" s="7" t="s">
+      <c r="C87" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D87" s="7" t="s">
+      <c r="D87" s="11" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
+    <row r="88" ht="16.5" spans="1:4">
+      <c r="A88" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C88" s="7" t="s">
+      <c r="B88" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="D88" s="7" t="s">
+      <c r="C88" s="11" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
+      <c r="D88" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="B89" s="3" t="s">
+    </row>
+    <row r="89" ht="16.5" spans="1:4">
+      <c r="A89" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="C89" s="7" t="s">
+      <c r="B89" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="C89" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D89" s="7" t="s">
+      <c r="D89" s="11" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
+    <row r="90" ht="16.5" spans="1:4">
+      <c r="A90" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="10" t="s">
         <v>334</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="11" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="91" ht="27" spans="1:4">
-      <c r="A91" s="2" t="s">
+    <row r="91" ht="16.5" spans="1:4">
+      <c r="A91" s="9" t="s">
         <v>337</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C91" s="10" t="s">
+      <c r="C91" s="14" t="s">
         <v>339</v>
       </c>
-      <c r="D91" s="10" t="s">
+      <c r="D91" s="14" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="92" ht="27" spans="1:4">
-      <c r="A92" s="2" t="s">
+    <row r="92" ht="33" spans="1:4">
+      <c r="A92" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C92" s="10" t="s">
+      <c r="C92" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="D92" s="10" t="s">
+      <c r="D92" s="13" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="93" ht="27" spans="1:4">
-      <c r="A93" s="2" t="s">
+    <row r="93" ht="33" spans="1:4">
+      <c r="A93" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="C93" s="10" t="s">
+      <c r="C93" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="D93" s="10" t="s">
+      <c r="D93" s="13" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
+    <row r="94" ht="33" spans="1:4">
+      <c r="A94" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C94" s="7" t="s">
+      <c r="C94" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="D94" s="7" t="s">
+      <c r="D94" s="13" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+    <row r="95" ht="16.5" spans="1:4">
+      <c r="A95" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="C95" s="7" t="s">
+      <c r="C95" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="D95" s="7" t="s">
+      <c r="D95" s="11" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
+    <row r="96" ht="16.5" spans="1:4">
+      <c r="A96" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="10" t="s">
         <v>358</v>
       </c>
-      <c r="C96" s="7" t="s">
+      <c r="C96" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="D96" s="7" t="s">
+      <c r="D96" s="11" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
+    <row r="97" ht="16.5" spans="1:4">
+      <c r="A97" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="C97" s="7" t="s">
+      <c r="C97" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D97" s="7" t="s">
+      <c r="D97" s="11" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
+    <row r="98" ht="16.5" spans="1:4">
+      <c r="A98" s="9" t="s">
         <v>365</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="C98" s="7" t="s">
+      <c r="B98" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="D98" s="7" t="s">
+      <c r="C98" s="11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="2" t="s">
+      <c r="D98" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B99" s="3" t="s">
+    </row>
+    <row r="99" ht="16.5" spans="1:4">
+      <c r="A99" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C99" s="7" t="s">
+      <c r="B99" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="C99" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D99" s="7" t="s">
+      <c r="D99" s="11" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="2" t="s">
+    <row r="100" ht="16.5" spans="1:4">
+      <c r="A100" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="C100" s="7" t="s">
+      <c r="B100" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D100" s="7" t="s">
+      <c r="C100" s="11" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="2" t="s">
+      <c r="D100" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="B101" s="3" t="s">
+    </row>
+    <row r="101" ht="16.5" spans="1:4">
+      <c r="A101" s="9" t="s">
         <v>376</v>
       </c>
-      <c r="C101" s="7" t="s">
+      <c r="B101" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="C101" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="D101" s="7" t="s">
+      <c r="D101" s="11" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
+    <row r="102" ht="16.5" spans="1:4">
+      <c r="A102" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="10" t="s">
         <v>380</v>
       </c>
-      <c r="C102" s="7" t="s">
+      <c r="C102" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="D102" s="7" t="s">
+      <c r="D102" s="11" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="2" t="s">
+    <row r="103" ht="16.5" spans="1:4">
+      <c r="A103" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="10" t="s">
         <v>384</v>
       </c>
-      <c r="C103" s="7" t="s">
+      <c r="C103" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D103" s="7" t="s">
+      <c r="D103" s="11" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="2" t="s">
+    <row r="104" ht="16.5" spans="1:4">
+      <c r="A104" s="9" t="s">
         <v>387</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="C104" s="7" t="s">
+      <c r="C104" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="D104" s="7" t="s">
+      <c r="D104" s="11" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
+    <row r="105" ht="16.5" spans="1:4">
+      <c r="A105" s="9" t="s">
         <v>391</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="C105" s="7" t="s">
+      <c r="C105" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="D105" s="7" t="s">
+      <c r="D105" s="11" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="2" t="s">
+    <row r="106" ht="16.5" spans="1:4">
+      <c r="A106" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="10" t="s">
         <v>396</v>
       </c>
-      <c r="C106" s="7" t="s">
+      <c r="C106" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="D106" s="7" t="s">
+      <c r="D106" s="11" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="2" t="s">
+    <row r="107" ht="16.5" spans="1:4">
+      <c r="A107" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="C107" s="7" t="s">
+      <c r="C107" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="D107" s="7" t="s">
+      <c r="D107" s="11" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="2" t="s">
+    <row r="108" ht="16.5" spans="1:4">
+      <c r="A108" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="11" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="2" t="s">
+    <row r="109" ht="16.5" spans="1:4">
+      <c r="A109" s="9" t="s">
         <v>407</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="10" t="s">
         <v>408</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="14" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="2" t="s">
+    <row r="110" ht="16.5" spans="1:4">
+      <c r="A110" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="10" t="s">
         <v>412</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="14" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="2" t="s">
+    <row r="111" ht="16.5" spans="1:4">
+      <c r="A111" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="10" t="s">
         <v>416</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="14" t="s">
         <v>417</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="14" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="2" t="s">
+    <row r="112" ht="16.5" spans="1:4">
+      <c r="A112" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="10" t="s">
         <v>420</v>
       </c>
-      <c r="C112" s="7" t="s">
+      <c r="C112" s="14" t="s">
         <v>421</v>
       </c>
-      <c r="D112" s="7" t="s">
+      <c r="D112" s="14" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="2" t="s">
+    <row r="113" ht="16.5" spans="1:4">
+      <c r="A113" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="10" t="s">
         <v>424</v>
       </c>
-      <c r="C113" s="7" t="s">
+      <c r="C113" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="D113" s="7" t="s">
+      <c r="D113" s="11" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="2" t="s">
+    <row r="114" ht="16.5" spans="1:4">
+      <c r="A114" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="C114" s="7" t="s">
+      <c r="C114" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="D114" s="7" t="s">
+      <c r="D114" s="11" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="2" t="s">
+    <row r="115" ht="16.5" spans="1:4">
+      <c r="A115" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="C115" s="7" t="s">
+      <c r="C115" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="D115" s="7" t="s">
+      <c r="D115" s="11" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="2" t="s">
+    <row r="116" ht="16.5" spans="1:4">
+      <c r="A116" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="C116" s="7" t="s">
+      <c r="C116" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="D116" s="7" t="s">
+      <c r="D116" s="11" t="s">
         <v>438</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="2" t="s">
+    <row r="117" ht="16.5" spans="1:4">
+      <c r="A117" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="10" t="s">
         <v>440</v>
       </c>
-      <c r="C117" s="7" t="s">
+      <c r="C117" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="D117" s="7" t="s">
+      <c r="D117" s="11" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="2" t="s">
+    <row r="118" ht="16.5" spans="1:4">
+      <c r="A118" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="C118" s="7" t="s">
+      <c r="C118" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="D118" s="7" t="s">
+      <c r="D118" s="11" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="2" t="s">
+    <row r="119" ht="16.5" spans="1:4">
+      <c r="A119" s="9" t="s">
         <v>447</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="C119" s="7" t="s">
+      <c r="C119" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="D119" s="7" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="2" t="s">
+      <c r="D119" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="B120" s="3" t="s">
+    </row>
+    <row r="120" ht="16.5" spans="1:4">
+      <c r="A120" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="C120" s="7" t="s">
+      <c r="B120" s="10" t="s">
         <v>452</v>
       </c>
-      <c r="D120" s="7" t="s">
+      <c r="C120" s="11" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="2" t="s">
+      <c r="D120" s="11" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" ht="16.5" spans="1:4">
+      <c r="A121" s="9" t="s">
         <v>454</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="10" t="s">
         <v>455</v>
       </c>
-      <c r="C121" s="7" t="s">
+      <c r="C121" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="D121" s="7" t="s">
+      <c r="D121" s="11" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="2" t="s">
+    <row r="122" ht="16.5" spans="1:4">
+      <c r="A122" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="10" t="s">
         <v>459</v>
       </c>
-      <c r="C122" s="7" t="s">
+      <c r="C122" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="D122" s="7" t="s">
+      <c r="D122" s="11" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="2" t="s">
+    <row r="123" ht="16.5" spans="1:4">
+      <c r="A123" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="10" t="s">
         <v>463</v>
       </c>
-      <c r="C123" s="7" t="s">
+      <c r="C123" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="D123" s="7" t="s">
+      <c r="D123" s="11" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="2" t="s">
+    <row r="124" ht="16.5" spans="1:4">
+      <c r="A124" s="9" t="s">
         <v>466</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="10" t="s">
         <v>467</v>
       </c>
-      <c r="C124" s="7" t="s">
+      <c r="C124" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="D124" s="7" t="s">
+      <c r="D124" s="11" t="s">
         <v>469</v>
+      </c>
+    </row>
+    <row r="125" ht="16.5" spans="1:4">
+      <c r="A125" s="9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="126" ht="66" spans="1:4">
+      <c r="A126" s="9" t="s">
+        <v>474</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>475</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>476</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="127" ht="16.5" spans="1:4">
+      <c r="A127" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="128" ht="16.5" spans="1:4">
+      <c r="A128" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="C128" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="129" ht="99" spans="1:4">
+      <c r="A129" s="9" t="s">
+        <v>485</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>487</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="130" ht="66" spans="1:4">
+      <c r="A130" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="B130" s="12" t="s">
+        <v>490</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="131" ht="148.5" spans="1:4">
+      <c r="A131" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="B131" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="132" ht="82.5" spans="1:4">
+      <c r="A132" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>499</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="133" ht="82.5" spans="1:4">
+      <c r="A133" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B133" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="134" ht="16.5" spans="1:4">
+      <c r="A134" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="C134" s="14" t="s">
+        <v>507</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="135" ht="82.5" spans="1:4">
+      <c r="A135" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="B135" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -1604,8 +1604,8 @@
   </si>
   <si>
     <t>1.You can earn points by friends watch ad and complete tasks, and you can also get points from a friends of friends.
-&lt;color=#FFE200&gt;We will give 75% of AD revenue to players. So, You will earn 50% of your close friends’ AD revenue and 25% of your unfamiliar friends’ AD revenue.&lt;/color&gt;
-2.Every day UTC 10:00:00, you can review yesterday’s income from friends.
+&lt;color=#FFE200&gt;We will give 75% of AD revenue to players. So, You will earn 50% of your close friends' AD revenue and 25% of your unfamiliar friends'AD revenue.&lt;/color&gt;
+2.Every day UTC 10:00:00, you can review yesterday's income from friends.
 3.Points can be exchanged for money, 100,000 points equals 1 USD.
 4.&lt;color=#FFE200&gt;You can earn HUGE Pts by completing the tasks in the offer.&lt;/color&gt;</t>
   </si>
@@ -1695,10 +1695,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1715,16 +1715,47 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,7 +1769,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1760,8 +1813,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1777,29 +1831,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1809,53 +1856,6 @@
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1874,7 +1874,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1886,25 +2024,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1916,31 +2036,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1952,109 +2054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2097,17 +2097,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2123,39 +2132,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2181,16 +2157,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2202,10 +2202,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2214,133 +2214,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2840,9 +2840,9 @@
   <dimension ref="A1:E135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D59" sqref="D59"/>
+      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="517">
   <si>
     <t xml:space="preserve">内                       国 </t>
   </si>
@@ -1689,16 +1689,28 @@
 2.タスクの完了後、スポンサーは結果を確認し、できるだけ早くポイントを増やします。 1〜3日かかる場合があります。
 3.親しい友人がタスクを完了すると、50％のポイントが追加され、見知らぬ友人からは25％の追加ポイントが獲得されます。</t>
   </si>
+  <si>
+    <t>Rules_LetusPlay</t>
+  </si>
+  <si>
+    <t>LET'S  PLAY!</t>
+  </si>
+  <si>
+    <t>ПОИГРАЕМ!</t>
+  </si>
+  <si>
+    <t>遊ぼう！</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1713,6 +1725,57 @@
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -1730,11 +1793,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1754,106 +1863,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1874,31 +1886,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1910,7 +1934,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1922,103 +1988,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2036,25 +2012,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2100,6 +2112,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -2117,6 +2138,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2147,15 +2183,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2166,21 +2193,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2202,10 +2214,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2214,133 +2226,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2351,6 +2363,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2362,9 +2377,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2837,45 +2849,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A121" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C129" sqref="C129"/>
+      <selection pane="bottomLeft" activeCell="B128" sqref="B128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="3" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="4" customWidth="1"/>
-    <col min="4" max="4" width="72.4916666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="16.8583333333333" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="29.375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="104.458333333333" style="5" customWidth="1"/>
+    <col min="4" max="4" width="72.4916666666667" style="5" customWidth="1"/>
+    <col min="5" max="5" width="16.8583333333333" style="5" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" ht="16.5" spans="1:4">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" ht="16.5" spans="1:4">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:4">
       <c r="A3" s="7" t="s">
@@ -4731,6 +4743,20 @@
       </c>
       <c r="D135" s="13" t="s">
         <v>512</v>
+      </c>
+    </row>
+    <row r="136" s="2" customFormat="1" ht="16.5" spans="1:4">
+      <c r="A136" s="9" t="s">
+        <v>513</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="777">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="783">
   <si>
     <t xml:space="preserve">内                                     国 </t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You have </t>
     </r>
     <r>
@@ -510,6 +516,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">You must have </t>
     </r>
     <r>
@@ -539,6 +551,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>Lucky Draw</t>
     </r>
     <r>
@@ -737,6 +755,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Paypal </t>
     </r>
     <r>
@@ -887,6 +911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">5M </t>
     </r>
     <r>
@@ -1239,6 +1269,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Paypal </t>
     </r>
     <r>
@@ -2322,42 +2358,16 @@
     <t>unlock</t>
   </si>
   <si>
-    <t>разблокировать</t>
-  </si>
-  <si>
-    <t>ロックを解除する</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>잠금</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>해제</t>
-    </r>
-  </si>
-  <si>
-    <t>Freischalten</t>
+    <t>иметь</t>
+  </si>
+  <si>
+    <t>得る</t>
+  </si>
+  <si>
+    <t>얻다</t>
+  </si>
+  <si>
+    <t>erhalten</t>
   </si>
   <si>
     <t>Reward_Gold</t>
@@ -2501,6 +2511,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">Pts </t>
     </r>
     <r>
@@ -2581,33 +2597,108 @@
     <t>Slots_NextSlotsIn</t>
   </si>
   <si>
-    <t>NEXT SLOTS IN:</t>
-  </si>
-  <si>
-    <t>СЛЕДУЮЩИЕ СЛОТЫ В:</t>
-  </si>
-  <si>
-    <t>次のスロット：</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>다음</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
+    <t>FREE SLOTS :</t>
+  </si>
+  <si>
+    <t>БЕСПЛАТНЫЕ СЛОТЫ:</t>
+  </si>
+  <si>
+    <t>無料スロット：</t>
+  </si>
+  <si>
+    <t>무료 슬롯 :</t>
+  </si>
+  <si>
+    <t>FREI SLOTS :</t>
+  </si>
+  <si>
+    <t>Slots_Win</t>
+  </si>
+  <si>
+    <t>WIN</t>
+  </si>
+  <si>
+    <t>получить</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>승리</t>
+    </r>
+  </si>
+  <si>
+    <t>SIEG</t>
+  </si>
+  <si>
+    <t>Task_Tasks</t>
+  </si>
+  <si>
+    <t>TASKS</t>
+  </si>
+  <si>
+    <t>ЗАДАЧИ</t>
+  </si>
+  <si>
+    <t>タスク</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>작업</t>
+    </r>
+  </si>
+  <si>
+    <t>AUFGABEN</t>
+  </si>
+  <si>
+    <t>Task_Achievements</t>
+  </si>
+  <si>
+    <t>ACHIEVEMENTS</t>
+  </si>
+  <si>
+    <t>ДОСТИЖЕНИЯ</t>
+  </si>
+  <si>
+    <t>アチーブメント</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>업적</t>
+    </r>
+  </si>
+  <si>
+    <t>ERREICHUNG</t>
+  </si>
+  <si>
+    <t>Task_Des_EnterSlotsOnce</t>
+  </si>
+  <si>
+    <t>Enter slots {0} times</t>
+  </si>
+  <si>
+    <t>Игровой автомат {0} раз</t>
+  </si>
+  <si>
+    <t>スロットマシン{0}回</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -2624,119 +2715,6 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-  </si>
-  <si>
-    <t>NÄCHSTE SLOTS IN:</t>
-  </si>
-  <si>
-    <t>Slots_Win</t>
-  </si>
-  <si>
-    <t>WIN</t>
-  </si>
-  <si>
-    <t>получить</t>
-  </si>
-  <si>
-    <t>得る</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>승리</t>
-    </r>
-  </si>
-  <si>
-    <t>SIEG</t>
-  </si>
-  <si>
-    <t>Task_Tasks</t>
-  </si>
-  <si>
-    <t>TASKS</t>
-  </si>
-  <si>
-    <t>ЗАДАЧИ</t>
-  </si>
-  <si>
-    <t>タスク</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>작업</t>
-    </r>
-  </si>
-  <si>
-    <t>AUFGABEN</t>
-  </si>
-  <si>
-    <t>Task_Achievements</t>
-  </si>
-  <si>
-    <t>ACHIEVEMENTS</t>
-  </si>
-  <si>
-    <t>ДОСТИЖЕНИЯ</t>
-  </si>
-  <si>
-    <t>アチーブメント</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>업적</t>
-    </r>
-  </si>
-  <si>
-    <t>ERREICHUNG</t>
-  </si>
-  <si>
-    <t>Task_Des_EnterSlotsOnce</t>
-  </si>
-  <si>
-    <t>Enter slots {0} times</t>
-  </si>
-  <si>
-    <t>Игровой автомат {0} раз</t>
-  </si>
-  <si>
-    <t>スロットマシン{0}回</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>슬롯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
       <t xml:space="preserve"> {0} </t>
     </r>
     <r>
@@ -3614,16 +3592,139 @@
     <t>PAYPAL-KONTO</t>
   </si>
   <si>
-    <t>InputPaypal_Tip</t>
-  </si>
-  <si>
-    <t>Please enter paypal account:</t>
-  </si>
-  <si>
-    <t>Пожалуйста, введите аккаунт PayPal:</t>
-  </si>
-  <si>
-    <t>ペイパルアカウントを入力してください：</t>
+    <t>InputPaypal_FirstNamePlaceholder</t>
+  </si>
+  <si>
+    <t>First name of paypal</t>
+  </si>
+  <si>
+    <t>Имя PayPal</t>
+  </si>
+  <si>
+    <t>ペイパルの名</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>페이팔의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+  </si>
+  <si>
+    <t>Vorname von Paypal</t>
+  </si>
+  <si>
+    <t>InputPaypal_LastNamePlaceholder</t>
+  </si>
+  <si>
+    <t>Last name of paypal</t>
+  </si>
+  <si>
+    <t>Фамилия PayPal</t>
+  </si>
+  <si>
+    <t>ペイパルの姓</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>페이팔의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>성</t>
+    </r>
+  </si>
+  <si>
+    <t>Nachname von Paypal</t>
+  </si>
+  <si>
+    <t>InputPaypal_PayapalPlaceholder</t>
+  </si>
+  <si>
+    <t>Paypal email</t>
+  </si>
+  <si>
+    <t>Paypal Эл. адрес</t>
+  </si>
+  <si>
+    <t>Paypalメール</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">Paypal </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>이메일</t>
+    </r>
+  </si>
+  <si>
+    <t>Paypal Email</t>
+  </si>
+  <si>
+    <t>Check_Caution</t>
+  </si>
+  <si>
+    <t>Please check paypal account carefully.</t>
+  </si>
+  <si>
+    <t>Пожалуйста, внимательно проверьте счет PayPal.</t>
+  </si>
+  <si>
+    <t>PayPalアカウントを注意深く確認してください。</t>
   </si>
   <si>
     <r>
@@ -3651,139 +3752,6 @@
         <rFont val="MS Gothic"/>
         <charset val="134"/>
       </rPr>
-      <t>계정을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>입력하십시오</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-  </si>
-  <si>
-    <t>Bitte geben Sie ein Paypal-Konto ein:</t>
-  </si>
-  <si>
-    <t>InputPaypal_Placeholder</t>
-  </si>
-  <si>
-    <t>Enter paypal account</t>
-  </si>
-  <si>
-    <t>Войдите в аккаунт PayPal</t>
-  </si>
-  <si>
-    <t>PayPalアカウントを入力してください</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>페이팔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>계정</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>입력</t>
-    </r>
-  </si>
-  <si>
-    <t>Geben Sie das Paypal-Konto ein</t>
-  </si>
-  <si>
-    <t>Check_Caution</t>
-  </si>
-  <si>
-    <t>Please check paypal account carefully.</t>
-  </si>
-  <si>
-    <t>Пожалуйста, внимательно проверьте счет PayPal.</t>
-  </si>
-  <si>
-    <t>PayPalアカウントを注意深く確認してください。</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>페이팔</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
       <t>계정을주의</t>
     </r>
     <r>
@@ -3872,6 +3840,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">· </t>
     </r>
     <r>
@@ -3937,6 +3911,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -4491,6 +4471,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">NO </t>
     </r>
     <r>
@@ -6629,69 +6615,72 @@
     <t>Tips_EmptyEmail</t>
   </si>
   <si>
-    <t>Account is empty!</t>
-  </si>
-  <si>
-    <t>Счет пуст!</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>계정이</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>비어</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <charset val="134"/>
-      </rPr>
-      <t>!</t>
-    </r>
-  </si>
-  <si>
-    <t>Konto ist leer!</t>
+    <t>Enter complete information.</t>
+  </si>
+  <si>
+    <t>Введите полную информацию.</t>
+  </si>
+  <si>
+    <t>完全な情報を入力します。</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>완전한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>정보를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>입력하십시오</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Geben Sie alle Informationen.</t>
   </si>
   <si>
     <t>Tips_CashoutSuccess</t>
@@ -7197,6 +7186,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1 </t>
     </r>
     <r>
@@ -7821,6 +7816,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. LuckyDraw</t>
     </r>
     <r>
@@ -8498,6 +8499,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1.You</t>
     </r>
     <r>
@@ -9518,7 +9525,7 @@
 &lt;color=#FFE200&gt; Wir geben 75% der AD-Einnahmen an Spieler. Sie verdienen also 50% der AD-Einnahmen Ihrer engen Freunde und 25% der AD-Einnahmen Ihrer unbekannten Freunde. &lt;/ color&gt;
 2. Jeden Tag UTC 10:00:00 können Sie das gestrige Einkommen von Freunden überprüfen.
 3.Punkte können gegen Geld eingetauscht werden, 100.000 Punkte entsprechen 1 USD.
-4. &lt;color=#FFE200&gt; Sie können riesige Pts verdienen, indem sie die Aufgaben im Angebot abgeschlossen wird.&lt;/ Color&gt;“</t>
+4. &lt;color=#FFE200&gt; Sie können riesige Pts verdienen, indem sie die Aufgaben im Angebot abgeschlossen wird.&lt;/color&gt;</t>
   </si>
   <si>
     <t>Rules_Me</t>
@@ -9540,6 +9547,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -10076,6 +10089,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t>1. Lucky Draw</t>
     </r>
     <r>
@@ -10638,6 +10657,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
       <t xml:space="preserve">1. </t>
     </r>
     <r>
@@ -11485,7 +11510,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11501,36 +11526,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11543,6 +11544,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -11559,23 +11568,52 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11589,31 +11627,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -11621,7 +11636,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11637,22 +11652,37 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="MS Gothic"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
@@ -11677,6 +11707,168 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -11689,175 +11881,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11900,31 +11930,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11938,17 +11954,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11968,17 +11993,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12005,10 +12035,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12017,137 +12047,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12157,65 +12187,68 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -12746,23 +12779,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F137"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A124" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F141" sqref="F141"/>
+      <selection pane="topRight" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="4" customWidth="1"/>
-    <col min="3" max="3" width="104.458333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="105.541666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="118.583333333333" style="5" customWidth="1"/>
-    <col min="6" max="6" width="130.433333333333" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="29.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
+    <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
+    <col min="6" max="6" width="130.433333333333" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12772,10 +12805,10 @@
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
@@ -12790,26 +12823,26 @@
         <v>6</v>
       </c>
       <c r="B2" s="7"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -12826,10 +12859,10 @@
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -12846,10 +12879,10 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -12866,10 +12899,10 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -12886,10 +12919,10 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -12906,10 +12939,10 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -12926,10 +12959,10 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -12946,10 +12979,10 @@
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>51</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -12966,10 +12999,10 @@
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -12986,10 +13019,10 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -13006,10 +13039,10 @@
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>68</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -13026,10 +13059,10 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -13046,10 +13079,10 @@
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>79</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -13058,18 +13091,18 @@
       <c r="D16" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="15" t="s">
+      <c r="F16" s="14" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -13078,18 +13111,18 @@
       <c r="D17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="15" t="s">
+      <c r="F17" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="14" t="s">
         <v>83</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -13106,10 +13139,10 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C19" s="8" t="s">
@@ -13126,10 +13159,10 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="14" t="s">
         <v>95</v>
       </c>
       <c r="C20" s="8" t="s">
@@ -13146,10 +13179,10 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="14" t="s">
         <v>101</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -13166,10 +13199,10 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="14" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -13186,10 +13219,10 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="14" t="s">
         <v>112</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -13206,10 +13239,10 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="14" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -13226,10 +13259,10 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="14" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -13246,10 +13279,10 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="14" t="s">
         <v>129</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -13266,10 +13299,10 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="14" t="s">
         <v>135</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -13286,10 +13319,10 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>141</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -13306,10 +13339,10 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="15" t="s">
+      <c r="B29" s="14" t="s">
         <v>147</v>
       </c>
       <c r="C29" s="8" t="s">
@@ -13326,10 +13359,10 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="14" t="s">
         <v>153</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -13346,10 +13379,10 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="14" t="s">
         <v>159</v>
       </c>
       <c r="C31" s="8" t="s">
@@ -13366,10 +13399,10 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="14" t="s">
         <v>165</v>
       </c>
       <c r="C32" s="8" t="s">
@@ -13386,30 +13419,30 @@
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="17" t="s">
+      <c r="D33" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="17" t="s">
+      <c r="E33" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="17" t="s">
+      <c r="F33" s="15" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="14" t="s">
         <v>177</v>
       </c>
       <c r="C34" s="8" t="s">
@@ -13426,10 +13459,10 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="14" t="s">
         <v>183</v>
       </c>
       <c r="C35" s="8" t="s">
@@ -13446,10 +13479,10 @@
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="14" t="s">
         <v>189</v>
       </c>
       <c r="C36" s="8" t="s">
@@ -13466,10 +13499,10 @@
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="14" t="s">
+      <c r="A37" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="14" t="s">
         <v>195</v>
       </c>
       <c r="C37" s="8" t="s">
@@ -13486,10 +13519,10 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="14" t="s">
+      <c r="A38" s="13" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="14" t="s">
         <v>200</v>
       </c>
       <c r="C38" s="8" t="s">
@@ -13506,10 +13539,10 @@
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="14" t="s">
+      <c r="A39" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>206</v>
       </c>
       <c r="C39" s="8" t="s">
@@ -13526,10 +13559,10 @@
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="14" t="s">
+      <c r="A40" s="13" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="14" t="s">
         <v>212</v>
       </c>
       <c r="C40" s="8" t="s">
@@ -13546,10 +13579,10 @@
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="14" t="s">
         <v>217</v>
       </c>
       <c r="C41" s="8" t="s">
@@ -13566,16 +13599,16 @@
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="14" t="s">
+      <c r="A42" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="18" t="s">
+      <c r="C42" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="18" t="s">
+      <c r="D42" s="16" t="s">
         <v>225</v>
       </c>
       <c r="E42" s="8" t="s">
@@ -13585,31 +13618,31 @@
         <v>227</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="14" t="s">
+    <row r="43" s="2" customFormat="1" spans="1:6">
+      <c r="A43" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C43" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="8" t="s">
+      <c r="D43" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="8" t="s">
+      <c r="E43" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="19" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="B44" s="14" t="s">
         <v>235</v>
       </c>
       <c r="C44" s="8" t="s">
@@ -13626,10 +13659,10 @@
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="15" t="s">
+      <c r="B45" s="14" t="s">
         <v>240</v>
       </c>
       <c r="C45" s="8" t="s">
@@ -13646,10 +13679,10 @@
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="13" t="s">
         <v>245</v>
       </c>
-      <c r="B46" s="15" t="s">
+      <c r="B46" s="14" t="s">
         <v>246</v>
       </c>
       <c r="C46" s="8" t="s">
@@ -13666,10 +13699,10 @@
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="14" t="s">
+      <c r="A47" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="15" t="s">
+      <c r="B47" s="14" t="s">
         <v>252</v>
       </c>
       <c r="C47" s="8" t="s">
@@ -13686,10 +13719,10 @@
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="B48" s="14" t="s">
         <v>258</v>
       </c>
       <c r="C48" s="8" t="s">
@@ -13706,16 +13739,16 @@
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="14" t="s">
+      <c r="A49" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="B49" s="14" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="18" t="s">
+      <c r="C49" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="D49" s="16" t="s">
         <v>266</v>
       </c>
       <c r="E49" s="8" t="s">
@@ -13726,10 +13759,10 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="14" t="s">
+      <c r="A50" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="B50" s="14" t="s">
         <v>270</v>
       </c>
       <c r="C50" s="8" t="s">
@@ -13746,10 +13779,10 @@
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="15" t="s">
+      <c r="B51" s="14" t="s">
         <v>276</v>
       </c>
       <c r="C51" s="8" t="s">
@@ -13765,11 +13798,11 @@
         <v>276</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="14" t="s">
+    <row r="52" s="2" customFormat="1" spans="1:6">
+      <c r="A52" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="B52" s="14" t="s">
         <v>279</v>
       </c>
       <c r="C52" s="8" t="s">
@@ -13786,590 +13819,590 @@
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="14" t="s">
+      <c r="A53" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="15" t="s">
+      <c r="B53" s="14" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="18" t="s">
+      <c r="C53" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="18" t="s">
+      <c r="D53" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="E53" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="F53" s="8" t="s">
         <v>288</v>
-      </c>
-      <c r="F53" s="8" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="B54" s="14" t="s">
         <v>290</v>
       </c>
-      <c r="B54" s="15" t="s">
+      <c r="C54" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="D54" s="8" t="s">
         <v>292</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="E54" s="8" t="s">
         <v>293</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="F54" s="8" t="s">
         <v>294</v>
-      </c>
-      <c r="F54" s="8" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="14" t="s">
+      <c r="A55" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B55" s="14" t="s">
         <v>296</v>
       </c>
-      <c r="B55" s="15" t="s">
+      <c r="C55" s="8" t="s">
         <v>297</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="D55" s="8" t="s">
         <v>298</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="E55" s="8" t="s">
         <v>299</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="F55" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="F55" s="8" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="14" t="s">
+      <c r="A56" s="13" t="s">
+        <v>301</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>302</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="C56" s="8" t="s">
         <v>303</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="D56" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="E56" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="F56" s="8" t="s">
         <v>306</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="14" t="s">
+      <c r="A57" s="13" t="s">
+        <v>307</v>
+      </c>
+      <c r="B57" s="20" t="s">
         <v>308</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="C57" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="D57" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="E57" s="8" t="s">
         <v>311</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="F57" s="8" t="s">
         <v>312</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="B58" s="20" t="s">
         <v>314</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="C58" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="E58" s="8" t="s">
         <v>317</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="F58" s="8" t="s">
         <v>318</v>
-      </c>
-      <c r="F58" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="14" t="s">
+      <c r="A59" s="13" t="s">
+        <v>319</v>
+      </c>
+      <c r="B59" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B59" s="15" t="s">
+      <c r="C59" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="D59" s="8" t="s">
         <v>322</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="E59" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="F59" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="F59" s="8" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="14" t="s">
+      <c r="A60" s="13" t="s">
+        <v>325</v>
+      </c>
+      <c r="B60" s="14" t="s">
         <v>326</v>
       </c>
-      <c r="B60" s="15" t="s">
+      <c r="C60" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="D60" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="E60" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="F60" s="8" t="s">
         <v>330</v>
-      </c>
-      <c r="F60" s="8" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="13" t="s">
+        <v>331</v>
+      </c>
+      <c r="B61" s="14" t="s">
         <v>332</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="C61" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="D61" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="E61" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="F61" s="8" t="s">
         <v>336</v>
-      </c>
-      <c r="F61" s="8" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="14" t="s">
+      <c r="A62" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B62" s="20" t="s">
         <v>338</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="C62" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
         <v>340</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="E62" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
         <v>342</v>
-      </c>
-      <c r="F62" s="8" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="14" t="s">
+      <c r="A63" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B63" s="14" t="s">
         <v>344</v>
       </c>
-      <c r="B63" s="15" t="s">
+      <c r="C63" s="8" t="s">
         <v>345</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="E63" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="F63" s="8" t="s">
         <v>348</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B64" s="14" t="s">
         <v>350</v>
       </c>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="E64" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>354</v>
-      </c>
-      <c r="F64" s="8" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B65" s="14" t="s">
         <v>356</v>
       </c>
-      <c r="B65" s="15" t="s">
+      <c r="C65" s="8" t="s">
         <v>357</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="E65" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>360</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="14" t="s">
+      <c r="A66" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="B66" s="15" t="s">
-        <v>362</v>
-      </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="E66" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>365</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>366</v>
+      </c>
+      <c r="C67" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B67" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="C67" s="8" t="s">
+      <c r="D67" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="E67" s="8" t="s">
         <v>369</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="F67" s="8" t="s">
         <v>370</v>
-      </c>
-      <c r="F67" s="8" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B68" s="14" t="s">
         <v>372</v>
       </c>
-      <c r="B68" s="15" t="s">
+      <c r="C68" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>374</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="E68" s="8" t="s">
         <v>375</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="F68" s="8" t="s">
         <v>376</v>
-      </c>
-      <c r="F68" s="8" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>377</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="B69" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="8" t="s">
         <v>379</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="E69" s="8" t="s">
         <v>380</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="F69" s="8" t="s">
         <v>381</v>
-      </c>
-      <c r="F69" s="8" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>382</v>
+      </c>
+      <c r="C70" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="B70" s="20" t="s">
-        <v>383</v>
-      </c>
-      <c r="C70" s="8" t="s">
+      <c r="D70" s="8" t="s">
         <v>384</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="E70" s="8" t="s">
         <v>385</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="F70" s="8" t="s">
         <v>386</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B71" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="B71" s="15" t="s">
+      <c r="C71" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D71" s="8" t="s">
         <v>389</v>
       </c>
-      <c r="C71" s="8" t="s">
-        <v>389</v>
-      </c>
-      <c r="D71" s="8" t="s">
-        <v>390</v>
-      </c>
       <c r="E71" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F71" s="8" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="B72" s="14" t="s">
         <v>391</v>
       </c>
-      <c r="B72" s="15" t="s">
+      <c r="C72" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="D72" s="8" t="s">
         <v>393</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="E72" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="F72" s="8" t="s">
         <v>395</v>
-      </c>
-      <c r="F72" s="8" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="B73" s="14" t="s">
         <v>397</v>
       </c>
-      <c r="B73" s="15" t="s">
+      <c r="C73" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="E73" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="F73" s="8" t="s">
         <v>401</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="B74" s="14" t="s">
         <v>403</v>
       </c>
-      <c r="B74" s="15" t="s">
+      <c r="C74" s="8" t="s">
         <v>404</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>405</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="E74" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="F74" s="8" t="s">
         <v>407</v>
-      </c>
-      <c r="F74" s="8" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="B75" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="B75" s="16" t="s">
+      <c r="C75" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="D75" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="D75" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>412</v>
-      </c>
-      <c r="F75" s="8" t="s">
-        <v>413</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" s="14" t="s">
         <v>414</v>
       </c>
-      <c r="B76" s="15" t="s">
+      <c r="C76" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="D76" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="E76" s="8" t="s">
         <v>417</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="F76" s="8" t="s">
         <v>418</v>
-      </c>
-      <c r="F76" s="8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B77" s="14" t="s">
         <v>420</v>
       </c>
-      <c r="B77" s="15" t="s">
+      <c r="C77" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="D77" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="E77" s="8" t="s">
         <v>422</v>
       </c>
-      <c r="D77" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="E77" s="8" t="s">
+      <c r="F77" s="8" t="s">
         <v>423</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>425</v>
       </c>
-      <c r="B78" s="15" t="s">
+      <c r="C78" s="8" t="s">
         <v>426</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="D78" s="8" t="s">
         <v>427</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="E78" s="8" t="s">
         <v>428</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="F78" s="8" t="s">
         <v>429</v>
       </c>
-      <c r="F78" s="8" t="s">
+    </row>
+    <row r="79" s="3" customFormat="1" spans="1:6">
+      <c r="A79" s="13" t="s">
         <v>430</v>
       </c>
+      <c r="B79" s="22" t="s">
+        <v>431</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>432</v>
+      </c>
+      <c r="D79" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="F79" s="22" t="s">
+        <v>435</v>
+      </c>
     </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B79" s="15" t="s">
-        <v>432</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>433</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>434</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>435</v>
-      </c>
-      <c r="F79" s="8" t="s">
+    <row r="80" s="3" customFormat="1" spans="1:6">
+      <c r="A80" s="13" t="s">
         <v>436</v>
       </c>
+      <c r="B80" s="22" t="s">
+        <v>437</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D80" s="22" t="s">
+        <v>439</v>
+      </c>
+      <c r="E80" s="22" t="s">
+        <v>440</v>
+      </c>
+      <c r="F80" s="22" t="s">
+        <v>441</v>
+      </c>
     </row>
-    <row r="80" spans="1:6">
-      <c r="A80" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B80" s="15" t="s">
-        <v>438</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>439</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>440</v>
-      </c>
-      <c r="E80" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="F80" s="8" t="s">
+    <row r="81" s="3" customFormat="1" spans="1:6">
+      <c r="A81" s="13" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="81" spans="1:6">
-      <c r="A81" s="14" t="s">
+      <c r="B81" s="22" t="s">
         <v>443</v>
       </c>
-      <c r="B81" s="15" t="s">
+      <c r="C81" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="E81" s="8" t="s">
+      <c r="F81" s="22" t="s">
         <v>447</v>
-      </c>
-      <c r="F81" s="8" t="s">
-        <v>448</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B82" s="15" t="s">
+      <c r="A82" s="13" t="s">
+        <v>448</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>449</v>
       </c>
       <c r="C82" s="8" t="s">
@@ -14386,130 +14419,130 @@
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="14" t="s">
+      <c r="A83" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="B83" s="15" t="s">
+      <c r="B83" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="C83" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
         <v>456</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="E83" s="8" t="s">
         <v>457</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="F83" s="8" t="s">
         <v>458</v>
       </c>
-      <c r="F83" s="8" t="s">
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="13" t="s">
         <v>459</v>
       </c>
+      <c r="B84" s="14" t="s">
+        <v>460</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>461</v>
+      </c>
+      <c r="D84" s="8" t="s">
+        <v>462</v>
+      </c>
+      <c r="E84" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="F84" s="8" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="84" ht="66" spans="1:6">
-      <c r="A84" s="14" t="s">
-        <v>460</v>
-      </c>
-      <c r="B84" s="15" t="s">
-        <v>461</v>
-      </c>
-      <c r="C84" s="17" t="s">
-        <v>462</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="E84" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="F84" s="17" t="s">
+    <row r="85" ht="66" spans="1:6">
+      <c r="A85" s="13" t="s">
         <v>465</v>
       </c>
+      <c r="B85" s="14" t="s">
+        <v>466</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="85" ht="33" spans="1:6">
-      <c r="A85" s="14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B85" s="15" t="s">
-        <v>467</v>
-      </c>
-      <c r="C85" s="17" t="s">
-        <v>468</v>
-      </c>
-      <c r="D85" s="17" t="s">
-        <v>469</v>
-      </c>
-      <c r="E85" s="17" t="s">
-        <v>470</v>
-      </c>
-      <c r="F85" s="17" t="s">
+    <row r="86" ht="33" spans="1:6">
+      <c r="A86" s="13" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="14" t="s">
+      <c r="B86" s="14" t="s">
         <v>472</v>
       </c>
-      <c r="B86" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="C86" s="8" t="s">
+      <c r="D86" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="D86" s="8" t="s">
+      <c r="E86" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="E86" s="8" t="s">
+      <c r="F86" s="15" t="s">
         <v>476</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="14" t="s">
+      <c r="A87" s="13" t="s">
+        <v>477</v>
+      </c>
+      <c r="B87" s="14" t="s">
         <v>478</v>
       </c>
-      <c r="B87" s="15" t="s">
+      <c r="C87" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="D87" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="E87" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="F87" s="8" t="s">
         <v>482</v>
-      </c>
-      <c r="F87" s="8" t="s">
-        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="14" t="s">
+      <c r="A88" s="13" t="s">
+        <v>483</v>
+      </c>
+      <c r="B88" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="B88" s="15" t="s">
+      <c r="C88" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="D88" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="E88" s="8" t="s">
         <v>487</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="F88" s="8" t="s">
         <v>488</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="14" t="s">
-        <v>490</v>
-      </c>
-      <c r="B89" s="15" t="s">
+      <c r="A89" s="13" t="s">
+        <v>489</v>
+      </c>
+      <c r="B89" s="14" t="s">
         <v>490</v>
       </c>
       <c r="C89" s="8" t="s">
@@ -14526,190 +14559,190 @@
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="14" t="s">
+      <c r="A90" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="B90" s="15" t="s">
+      <c r="B90" s="14" t="s">
+        <v>495</v>
+      </c>
+      <c r="C90" s="8" t="s">
         <v>496</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="8" t="s">
         <v>497</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="E90" s="8" t="s">
         <v>498</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="F90" s="8" t="s">
         <v>499</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>500</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="14" t="s">
+      <c r="A91" s="13" t="s">
+        <v>500</v>
+      </c>
+      <c r="B91" s="14" t="s">
         <v>501</v>
       </c>
-      <c r="B91" s="15" t="s">
+      <c r="C91" s="8" t="s">
         <v>502</v>
       </c>
-      <c r="C91" s="18" t="s">
+      <c r="D91" s="8" t="s">
         <v>503</v>
       </c>
-      <c r="D91" s="18" t="s">
+      <c r="E91" s="8" t="s">
         <v>504</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="F91" s="8" t="s">
         <v>505</v>
       </c>
-      <c r="F91" s="8" t="s">
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="13" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="92" ht="33" spans="1:6">
-      <c r="A92" s="14" t="s">
+      <c r="B92" s="14" t="s">
         <v>507</v>
       </c>
-      <c r="B92" s="15" t="s">
+      <c r="C92" s="16" t="s">
         <v>508</v>
       </c>
-      <c r="C92" s="17" t="s">
+      <c r="D92" s="16" t="s">
         <v>509</v>
       </c>
-      <c r="D92" s="17" t="s">
+      <c r="E92" s="8" t="s">
         <v>510</v>
       </c>
-      <c r="E92" s="17" t="s">
+      <c r="F92" s="8" t="s">
         <v>511</v>
-      </c>
-      <c r="F92" s="17" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="93" ht="33" spans="1:6">
-      <c r="A93" s="14" t="s">
+      <c r="A93" s="13" t="s">
+        <v>512</v>
+      </c>
+      <c r="B93" s="14" t="s">
         <v>513</v>
       </c>
-      <c r="B93" s="15" t="s">
+      <c r="C93" s="15" t="s">
         <v>514</v>
       </c>
-      <c r="C93" s="17" t="s">
+      <c r="D93" s="15" t="s">
         <v>515</v>
       </c>
-      <c r="D93" s="17" t="s">
+      <c r="E93" s="15" t="s">
         <v>516</v>
       </c>
-      <c r="E93" s="17" t="s">
+      <c r="F93" s="15" t="s">
         <v>517</v>
-      </c>
-      <c r="F93" s="17" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:6">
-      <c r="A94" s="14" t="s">
+      <c r="A94" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="B94" s="14" t="s">
         <v>519</v>
       </c>
-      <c r="B94" s="15" t="s">
+      <c r="C94" s="15" t="s">
         <v>520</v>
       </c>
-      <c r="C94" s="17" t="s">
+      <c r="D94" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="D94" s="17" t="s">
+      <c r="E94" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="F94" s="15" t="s">
         <v>523</v>
       </c>
-      <c r="F94" s="17" t="s">
+    </row>
+    <row r="95" ht="33" spans="1:6">
+      <c r="A95" s="13" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" s="14" t="s">
+      <c r="B95" s="14" t="s">
         <v>525</v>
       </c>
-      <c r="B95" s="15" t="s">
+      <c r="C95" s="15" t="s">
         <v>526</v>
       </c>
-      <c r="C95" s="8" t="s">
+      <c r="D95" s="15" t="s">
         <v>527</v>
       </c>
-      <c r="D95" s="8" t="s">
+      <c r="E95" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="E95" s="8" t="s">
+      <c r="F95" s="15" t="s">
         <v>529</v>
-      </c>
-      <c r="F95" s="8" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="14" t="s">
+      <c r="A96" s="13" t="s">
+        <v>530</v>
+      </c>
+      <c r="B96" s="14" t="s">
         <v>531</v>
       </c>
-      <c r="B96" s="15" t="s">
+      <c r="C96" s="8" t="s">
         <v>532</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="D96" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="E96" s="8" t="s">
         <v>534</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="F96" s="8" t="s">
         <v>535</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="14" t="s">
+      <c r="A97" s="13" t="s">
+        <v>536</v>
+      </c>
+      <c r="B97" s="14" t="s">
         <v>537</v>
       </c>
-      <c r="B97" s="15" t="s">
+      <c r="C97" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="D97" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="F97" s="8" t="s">
         <v>541</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="14" t="s">
+      <c r="A98" s="13" t="s">
+        <v>542</v>
+      </c>
+      <c r="B98" s="14" t="s">
         <v>543</v>
       </c>
-      <c r="B98" s="15" t="s">
+      <c r="C98" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="D98" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="E98" s="8" t="s">
         <v>546</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="F98" s="8" t="s">
         <v>547</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>548</v>
       </c>
     </row>
     <row r="99" spans="1:6">
-      <c r="A99" s="14" t="s">
-        <v>549</v>
-      </c>
-      <c r="B99" s="15" t="s">
+      <c r="A99" s="13" t="s">
+        <v>548</v>
+      </c>
+      <c r="B99" s="14" t="s">
         <v>549</v>
       </c>
       <c r="C99" s="8" t="s">
@@ -14726,30 +14759,30 @@
       </c>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="14" t="s">
+      <c r="A100" s="13" t="s">
         <v>554</v>
       </c>
-      <c r="B100" s="15" t="s">
+      <c r="B100" s="14" t="s">
+        <v>554</v>
+      </c>
+      <c r="C100" s="8" t="s">
         <v>555</v>
       </c>
-      <c r="C100" s="8" t="s">
+      <c r="D100" s="8" t="s">
         <v>556</v>
       </c>
-      <c r="D100" s="8" t="s">
+      <c r="E100" s="8" t="s">
         <v>557</v>
       </c>
-      <c r="E100" s="8" t="s">
+      <c r="F100" s="8" t="s">
         <v>558</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="14" t="s">
-        <v>560</v>
-      </c>
-      <c r="B101" s="15" t="s">
+      <c r="A101" s="13" t="s">
+        <v>559</v>
+      </c>
+      <c r="B101" s="14" t="s">
         <v>560</v>
       </c>
       <c r="C101" s="8" t="s">
@@ -14766,90 +14799,90 @@
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="13" t="s">
         <v>565</v>
       </c>
-      <c r="B102" s="15" t="s">
+      <c r="B102" s="14" t="s">
+        <v>565</v>
+      </c>
+      <c r="C102" s="8" t="s">
         <v>566</v>
       </c>
-      <c r="C102" s="8" t="s">
+      <c r="D102" s="8" t="s">
         <v>567</v>
       </c>
-      <c r="D102" s="8" t="s">
+      <c r="E102" s="8" t="s">
         <v>568</v>
       </c>
-      <c r="E102" s="8" t="s">
+      <c r="F102" s="8" t="s">
         <v>569</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="14" t="s">
+      <c r="A103" s="13" t="s">
+        <v>570</v>
+      </c>
+      <c r="B103" s="14" t="s">
         <v>571</v>
       </c>
-      <c r="B103" s="15" t="s">
+      <c r="C103" s="8" t="s">
         <v>572</v>
       </c>
-      <c r="C103" s="8" t="s">
+      <c r="D103" s="8" t="s">
         <v>573</v>
       </c>
-      <c r="D103" s="8" t="s">
+      <c r="E103" s="8" t="s">
         <v>574</v>
       </c>
-      <c r="E103" s="8" t="s">
+      <c r="F103" s="8" t="s">
         <v>575</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="14" t="s">
+      <c r="A104" s="13" t="s">
+        <v>576</v>
+      </c>
+      <c r="B104" s="14" t="s">
         <v>577</v>
       </c>
-      <c r="B104" s="15" t="s">
+      <c r="C104" s="8" t="s">
         <v>578</v>
       </c>
-      <c r="C104" s="8" t="s">
+      <c r="D104" s="8" t="s">
         <v>579</v>
       </c>
-      <c r="D104" s="8" t="s">
+      <c r="E104" s="8" t="s">
         <v>580</v>
       </c>
-      <c r="E104" s="8" t="s">
+      <c r="F104" s="8" t="s">
         <v>581</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="13" t="s">
+        <v>582</v>
+      </c>
+      <c r="B105" s="14" t="s">
         <v>583</v>
       </c>
-      <c r="B105" s="15" t="s">
+      <c r="C105" s="8" t="s">
         <v>584</v>
       </c>
-      <c r="C105" s="8" t="s">
+      <c r="D105" s="8" t="s">
         <v>585</v>
       </c>
-      <c r="D105" s="8" t="s">
+      <c r="E105" s="8" t="s">
         <v>586</v>
       </c>
-      <c r="E105" s="8" t="s">
+      <c r="F105" s="8" t="s">
         <v>587</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="14" t="s">
+      <c r="A106" s="13" t="s">
         <v>588</v>
       </c>
-      <c r="B106" s="15" t="s">
+      <c r="B106" s="14" t="s">
         <v>589</v>
       </c>
       <c r="C106" s="8" t="s">
@@ -14862,281 +14895,281 @@
         <v>592</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>593</v>
+        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="14" t="s">
+      <c r="A107" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="B107" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="B107" s="15" t="s">
+      <c r="C107" s="8" t="s">
         <v>595</v>
       </c>
-      <c r="C107" s="8" t="s">
+      <c r="D107" s="8" t="s">
         <v>596</v>
       </c>
-      <c r="D107" s="8" t="s">
+      <c r="E107" s="8" t="s">
         <v>597</v>
       </c>
-      <c r="E107" s="8" t="s">
+      <c r="F107" s="8" t="s">
         <v>598</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="14" t="s">
+      <c r="A108" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="B108" s="14" t="s">
         <v>600</v>
       </c>
-      <c r="B108" s="15" t="s">
+      <c r="C108" s="8" t="s">
         <v>601</v>
       </c>
-      <c r="C108" s="8" t="s">
+      <c r="D108" s="8" t="s">
         <v>602</v>
       </c>
-      <c r="D108" s="8" t="s">
+      <c r="E108" s="8" t="s">
         <v>603</v>
       </c>
-      <c r="E108" s="8" t="s">
+      <c r="F108" s="8" t="s">
         <v>604</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="14" t="s">
+      <c r="A109" s="13" t="s">
+        <v>605</v>
+      </c>
+      <c r="B109" s="14" t="s">
         <v>606</v>
       </c>
-      <c r="B109" s="15" t="s">
+      <c r="C109" s="8" t="s">
         <v>607</v>
       </c>
-      <c r="C109" s="18" t="s">
+      <c r="D109" s="8" t="s">
         <v>608</v>
       </c>
-      <c r="D109" s="18" t="s">
+      <c r="E109" s="8" t="s">
         <v>609</v>
       </c>
-      <c r="E109" s="8" t="s">
+      <c r="F109" s="8" t="s">
         <v>610</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="14" t="s">
+      <c r="A110" s="13" t="s">
+        <v>611</v>
+      </c>
+      <c r="B110" s="14" t="s">
         <v>612</v>
       </c>
-      <c r="B110" s="15" t="s">
+      <c r="C110" s="16" t="s">
         <v>613</v>
       </c>
-      <c r="C110" s="18" t="s">
+      <c r="D110" s="16" t="s">
         <v>614</v>
       </c>
-      <c r="D110" s="18" t="s">
+      <c r="E110" s="8" t="s">
         <v>615</v>
       </c>
-      <c r="E110" s="8" t="s">
+      <c r="F110" s="8" t="s">
         <v>616</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="14" t="s">
+      <c r="A111" s="13" t="s">
+        <v>617</v>
+      </c>
+      <c r="B111" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B111" s="15" t="s">
+      <c r="C111" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="C111" s="18" t="s">
+      <c r="D111" s="16" t="s">
         <v>620</v>
       </c>
-      <c r="D111" s="18" t="s">
+      <c r="E111" s="8" t="s">
         <v>621</v>
       </c>
-      <c r="E111" s="8" t="s">
+      <c r="F111" s="8" t="s">
         <v>622</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="13" t="s">
+        <v>623</v>
+      </c>
+      <c r="B112" s="14" t="s">
         <v>624</v>
       </c>
-      <c r="B112" s="15" t="s">
+      <c r="C112" s="16" t="s">
         <v>625</v>
       </c>
-      <c r="C112" s="18" t="s">
+      <c r="D112" s="16" t="s">
         <v>626</v>
       </c>
-      <c r="D112" s="18" t="s">
+      <c r="E112" s="8" t="s">
         <v>627</v>
       </c>
-      <c r="E112" s="8" t="s">
+      <c r="F112" s="8" t="s">
         <v>628</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="14" t="s">
+      <c r="A113" s="13" t="s">
+        <v>629</v>
+      </c>
+      <c r="B113" s="14" t="s">
         <v>630</v>
       </c>
-      <c r="B113" s="15" t="s">
+      <c r="C113" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="C113" s="8" t="s">
+      <c r="D113" s="16" t="s">
         <v>632</v>
       </c>
-      <c r="D113" s="8" t="s">
+      <c r="E113" s="8" t="s">
         <v>633</v>
       </c>
-      <c r="E113" s="8" t="s">
+      <c r="F113" s="8" t="s">
         <v>634</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="14" t="s">
+      <c r="A114" s="13" t="s">
+        <v>635</v>
+      </c>
+      <c r="B114" s="14" t="s">
         <v>636</v>
       </c>
-      <c r="B114" s="15" t="s">
+      <c r="C114" s="8" t="s">
         <v>637</v>
       </c>
-      <c r="C114" s="8" t="s">
+      <c r="D114" s="8" t="s">
         <v>638</v>
       </c>
-      <c r="D114" s="8" t="s">
+      <c r="E114" s="8" t="s">
         <v>639</v>
       </c>
-      <c r="E114" s="8" t="s">
+      <c r="F114" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="13" t="s">
+        <v>641</v>
+      </c>
+      <c r="B115" s="14" t="s">
         <v>642</v>
       </c>
-      <c r="B115" s="15" t="s">
+      <c r="C115" s="8" t="s">
         <v>643</v>
       </c>
-      <c r="C115" s="8" t="s">
+      <c r="D115" s="8" t="s">
         <v>644</v>
       </c>
-      <c r="D115" s="8" t="s">
+      <c r="E115" s="8" t="s">
         <v>645</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="F115" s="8" t="s">
         <v>646</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="14" t="s">
+      <c r="A116" s="13" t="s">
+        <v>647</v>
+      </c>
+      <c r="B116" s="14" t="s">
         <v>648</v>
       </c>
-      <c r="B116" s="15" t="s">
+      <c r="C116" s="8" t="s">
         <v>649</v>
       </c>
-      <c r="C116" s="8" t="s">
+      <c r="D116" s="8" t="s">
         <v>650</v>
       </c>
-      <c r="D116" s="8" t="s">
+      <c r="E116" s="8" t="s">
         <v>651</v>
       </c>
-      <c r="E116" s="8" t="s">
+      <c r="F116" s="8" t="s">
         <v>652</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="14" t="s">
+      <c r="A117" s="13" t="s">
+        <v>653</v>
+      </c>
+      <c r="B117" s="14" t="s">
         <v>654</v>
       </c>
-      <c r="B117" s="15" t="s">
+      <c r="C117" s="8" t="s">
         <v>655</v>
       </c>
-      <c r="C117" s="8" t="s">
+      <c r="D117" s="8" t="s">
         <v>656</v>
       </c>
-      <c r="D117" s="8" t="s">
+      <c r="E117" s="8" t="s">
         <v>657</v>
       </c>
-      <c r="E117" s="8" t="s">
+      <c r="F117" s="8" t="s">
         <v>658</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="14" t="s">
+      <c r="A118" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B118" s="14" t="s">
         <v>660</v>
       </c>
-      <c r="B118" s="15" t="s">
+      <c r="C118" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C118" s="8" t="s">
+      <c r="D118" s="8" t="s">
         <v>662</v>
       </c>
-      <c r="D118" s="8" t="s">
+      <c r="E118" s="8" t="s">
         <v>663</v>
       </c>
-      <c r="E118" s="8" t="s">
+      <c r="F118" s="8" t="s">
         <v>664</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="14" t="s">
+      <c r="A119" s="13" t="s">
+        <v>665</v>
+      </c>
+      <c r="B119" s="14" t="s">
         <v>666</v>
       </c>
-      <c r="B119" s="15" t="s">
+      <c r="C119" s="8" t="s">
         <v>667</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="D119" s="8" t="s">
         <v>668</v>
       </c>
-      <c r="D119" s="8" t="s">
+      <c r="E119" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="E119" s="8" t="s">
+      <c r="F119" s="8" t="s">
         <v>670</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="14" t="s">
+      <c r="A120" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="B120" s="14" t="s">
         <v>672</v>
       </c>
-      <c r="B120" s="15" t="s">
+      <c r="C120" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="D120" s="8" t="s">
         <v>674</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>673</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>675</v>
@@ -15146,30 +15179,30 @@
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="14" t="s">
+      <c r="A121" s="13" t="s">
         <v>677</v>
       </c>
-      <c r="B121" s="15" t="s">
+      <c r="B121" s="19" t="s">
         <v>678</v>
       </c>
-      <c r="C121" s="8" t="s">
+      <c r="C121" s="19" t="s">
         <v>679</v>
       </c>
-      <c r="D121" s="8" t="s">
+      <c r="D121" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="E121" s="8" t="s">
+      <c r="E121" s="19" t="s">
         <v>681</v>
       </c>
-      <c r="F121" s="8" t="s">
+      <c r="F121" s="19" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="13" t="s">
         <v>683</v>
       </c>
-      <c r="B122" s="15" t="s">
+      <c r="B122" s="14" t="s">
         <v>684</v>
       </c>
       <c r="C122" s="8" t="s">
@@ -15186,10 +15219,10 @@
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="14" t="s">
+      <c r="A123" s="13" t="s">
         <v>689</v>
       </c>
-      <c r="B123" s="15" t="s">
+      <c r="B123" s="14" t="s">
         <v>690</v>
       </c>
       <c r="C123" s="8" t="s">
@@ -15206,10 +15239,10 @@
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="14" t="s">
+      <c r="A124" s="13" t="s">
         <v>695</v>
       </c>
-      <c r="B124" s="15" t="s">
+      <c r="B124" s="14" t="s">
         <v>696</v>
       </c>
       <c r="C124" s="8" t="s">
@@ -15226,10 +15259,10 @@
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="13" t="s">
         <v>701</v>
       </c>
-      <c r="B125" s="15" t="s">
+      <c r="B125" s="14" t="s">
         <v>702</v>
       </c>
       <c r="C125" s="8" t="s">
@@ -15245,244 +15278,264 @@
         <v>706</v>
       </c>
     </row>
-    <row r="126" ht="66" spans="1:6">
-      <c r="A126" s="14" t="s">
+    <row r="126" spans="1:6">
+      <c r="A126" s="13" t="s">
         <v>707</v>
       </c>
-      <c r="B126" s="15" t="s">
+      <c r="B126" s="14" t="s">
         <v>708</v>
       </c>
-      <c r="C126" s="17" t="s">
+      <c r="C126" s="8" t="s">
         <v>709</v>
       </c>
-      <c r="D126" s="17" t="s">
+      <c r="D126" s="8" t="s">
         <v>710</v>
       </c>
-      <c r="E126" s="17" t="s">
+      <c r="E126" s="8" t="s">
         <v>711</v>
       </c>
-      <c r="F126" s="17" t="s">
+      <c r="F126" s="8" t="s">
         <v>712</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
-      <c r="A127" s="14" t="s">
+    <row r="127" ht="66" spans="1:6">
+      <c r="A127" s="13" t="s">
         <v>713</v>
       </c>
-      <c r="B127" s="15" t="s">
+      <c r="B127" s="14" t="s">
         <v>714</v>
       </c>
-      <c r="C127" s="8" t="s">
+      <c r="C127" s="15" t="s">
         <v>715</v>
       </c>
-      <c r="D127" s="8" t="s">
+      <c r="D127" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E127" s="8" t="s">
+      <c r="E127" s="15" t="s">
         <v>717</v>
       </c>
-      <c r="F127" s="8" t="s">
+      <c r="F127" s="15" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:6">
-      <c r="A128" s="14" t="s">
+      <c r="A128" s="13" t="s">
         <v>719</v>
       </c>
-      <c r="B128" s="15" t="s">
+      <c r="B128" s="14" t="s">
         <v>720</v>
       </c>
       <c r="C128" s="8" t="s">
         <v>721</v>
       </c>
       <c r="D128" s="8" t="s">
-        <v>574</v>
+        <v>722</v>
       </c>
       <c r="E128" s="8" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
-    <row r="129" ht="82.5" spans="1:6">
-      <c r="A129" s="14" t="s">
-        <v>724</v>
-      </c>
-      <c r="B129" s="15" t="s">
+    <row r="129" spans="1:6">
+      <c r="A129" s="13" t="s">
         <v>725</v>
       </c>
-      <c r="C129" s="17" t="s">
+      <c r="B129" s="14" t="s">
         <v>726</v>
       </c>
-      <c r="D129" s="17" t="s">
+      <c r="C129" s="8" t="s">
         <v>727</v>
       </c>
-      <c r="E129" s="17" t="s">
+      <c r="D129" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="E129" s="8" t="s">
         <v>728</v>
       </c>
-      <c r="F129" s="17" t="s">
+      <c r="F129" s="8" t="s">
         <v>729</v>
       </c>
     </row>
-    <row r="130" ht="66" spans="1:6">
-      <c r="A130" s="14" t="s">
+    <row r="130" ht="82.5" spans="1:6">
+      <c r="A130" s="13" t="s">
         <v>730</v>
       </c>
-      <c r="B130" s="15" t="s">
+      <c r="B130" s="14" t="s">
         <v>731</v>
       </c>
-      <c r="C130" s="17" t="s">
+      <c r="C130" s="15" t="s">
         <v>732</v>
       </c>
-      <c r="D130" s="17" t="s">
+      <c r="D130" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="E130" s="17" t="s">
+      <c r="E130" s="15" t="s">
         <v>734</v>
       </c>
-      <c r="F130" s="17" t="s">
-        <v>734</v>
+      <c r="F130" s="15" t="s">
+        <v>735</v>
       </c>
     </row>
-    <row r="131" ht="115.5" spans="1:6">
-      <c r="A131" s="14" t="s">
-        <v>735</v>
-      </c>
-      <c r="B131" s="15" t="s">
+    <row r="131" ht="66" spans="1:6">
+      <c r="A131" s="13" t="s">
         <v>736</v>
       </c>
-      <c r="C131" s="21" t="s">
+      <c r="B131" s="14" t="s">
         <v>737</v>
       </c>
-      <c r="D131" s="17" t="s">
+      <c r="C131" s="15" t="s">
         <v>738</v>
       </c>
-      <c r="E131" s="17" t="s">
+      <c r="D131" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="F131" s="17" t="s">
+      <c r="E131" s="15" t="s">
         <v>740</v>
       </c>
+      <c r="F131" s="15" t="s">
+        <v>740</v>
+      </c>
     </row>
-    <row r="132" ht="66" spans="1:6">
-      <c r="A132" s="14" t="s">
+    <row r="132" ht="115.5" spans="1:6">
+      <c r="A132" s="13" t="s">
         <v>741</v>
       </c>
-      <c r="B132" s="15" t="s">
+      <c r="B132" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="C132" s="17" t="s">
+      <c r="C132" s="23" t="s">
         <v>743</v>
       </c>
-      <c r="D132" s="17" t="s">
+      <c r="D132" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E132" s="17" t="s">
+      <c r="E132" s="15" t="s">
         <v>745</v>
       </c>
-      <c r="F132" s="17" t="s">
+      <c r="F132" s="15" t="s">
         <v>746</v>
       </c>
     </row>
-    <row r="133" ht="132" spans="1:6">
-      <c r="A133" s="14" t="s">
+    <row r="133" ht="66" spans="1:6">
+      <c r="A133" s="13" t="s">
         <v>747</v>
       </c>
-      <c r="B133" s="15" t="s">
+      <c r="B133" s="14" t="s">
         <v>748</v>
       </c>
-      <c r="C133" s="17" t="s">
+      <c r="C133" s="15" t="s">
         <v>749</v>
       </c>
-      <c r="D133" s="17" t="s">
+      <c r="D133" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E133" s="17" t="s">
+      <c r="E133" s="15" t="s">
         <v>751</v>
       </c>
-      <c r="F133" s="17" t="s">
+      <c r="F133" s="15" t="s">
         <v>752</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="14" t="s">
+    <row r="134" ht="132" spans="1:6">
+      <c r="A134" s="13" t="s">
         <v>753</v>
       </c>
-      <c r="B134" s="15" t="s">
+      <c r="B134" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C134" s="18" t="s">
+      <c r="C134" s="15" t="s">
         <v>755</v>
       </c>
-      <c r="D134" s="18" t="s">
+      <c r="D134" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="E134" s="8" t="s">
+      <c r="E134" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="F134" s="8" t="s">
+      <c r="F134" s="15" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="135" ht="82.5" spans="1:6">
-      <c r="A135" s="14" t="s">
+    <row r="135" spans="1:6">
+      <c r="A135" s="13" t="s">
         <v>759</v>
       </c>
-      <c r="B135" s="15" t="s">
+      <c r="B135" s="14" t="s">
         <v>760</v>
       </c>
-      <c r="C135" s="17" t="s">
+      <c r="C135" s="16" t="s">
         <v>761</v>
       </c>
-      <c r="D135" s="17" t="s">
+      <c r="D135" s="16" t="s">
         <v>762</v>
       </c>
-      <c r="E135" s="17" t="s">
+      <c r="E135" s="8" t="s">
         <v>763</v>
       </c>
-      <c r="F135" s="17" t="s">
+      <c r="F135" s="8" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="136" s="2" customFormat="1" spans="1:6">
-      <c r="A136" s="14" t="s">
+    <row r="136" ht="82.5" spans="1:6">
+      <c r="A136" s="13" t="s">
         <v>765</v>
       </c>
-      <c r="B136" s="22" t="s">
+      <c r="B136" s="14" t="s">
         <v>766</v>
       </c>
-      <c r="C136" s="8" t="s">
+      <c r="C136" s="15" t="s">
         <v>767</v>
       </c>
-      <c r="D136" s="18" t="s">
+      <c r="D136" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="E136" s="18" t="s">
+      <c r="E136" s="15" t="s">
         <v>769</v>
       </c>
-      <c r="F136" s="18" t="s">
+      <c r="F136" s="15" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="137" s="2" customFormat="1" spans="1:6">
-      <c r="A137" s="14" t="s">
+      <c r="A137" s="13" t="s">
         <v>771</v>
       </c>
       <c r="B137" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="C137" s="18" t="s">
+      <c r="C137" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="D137" s="18" t="s">
+      <c r="D137" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="E137" s="18" t="s">
+      <c r="E137" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="F137" s="18" t="s">
+      <c r="F137" s="16" t="s">
         <v>776</v>
+      </c>
+    </row>
+    <row r="138" s="2" customFormat="1" spans="1:6">
+      <c r="A138" s="13" t="s">
+        <v>777</v>
+      </c>
+      <c r="B138" s="22" t="s">
+        <v>778</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>779</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>780</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>781</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>782</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -10080,12 +10080,14 @@
   <si>
     <t>1.Выиграйте джекпот и другие денежные призы в Lucky Draw.
 2.Compete каждый день в задаче и выиграть наличные деньги напрямую!
-3.Приглашайте друзей и получайте наличные и много билетов!</t>
+3.Приглашайте друзей и получайте наличные и много билетов!
+4.Слоты со вращением позволяют выигрывать деньги ежедневно!</t>
   </si>
   <si>
     <t>1.ラッキードローでジャックポットとその他の賞金を獲得します。
 2.タスクで毎日競争し、直接現金を獲得してください！
-3.友達を紹介して、入現金とその興を手に付けましょう！</t>
+3.友達を紹介して、入現金とその興を手に付けましょう！
+4.スピンスロットは毎日現金を獲得できます！</t>
   </si>
   <si>
     <r>
@@ -11506,8 +11508,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -11531,6 +11533,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11538,14 +11554,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11584,20 +11600,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11606,22 +11608,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11660,7 +11647,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11707,7 +11709,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11719,7 +11757,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11731,43 +11835,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11779,13 +11853,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11797,91 +11865,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11930,6 +11932,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -11954,17 +11965,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11972,8 +11979,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11993,22 +12000,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12035,10 +12037,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12047,133 +12049,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -12781,10 +12783,10 @@
   <sheetPr/>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A82" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A121" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C116" sqref="C116"/>
+      <selection pane="topRight" activeCell="E136" sqref="E136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -2597,19 +2597,48 @@
     <t>Slots_NextSlotsIn</t>
   </si>
   <si>
-    <t>FREE SLOTS :</t>
-  </si>
-  <si>
-    <t>БЕСПЛАТНЫЕ СЛОТЫ:</t>
-  </si>
-  <si>
-    <t>無料スロット：</t>
-  </si>
-  <si>
-    <t>무료 슬롯 :</t>
-  </si>
-  <si>
-    <t>FREI SLOTS :</t>
+    <t>FREE SLOTS</t>
+  </si>
+  <si>
+    <t>БЕСПЛАТНЫЕ СЛОТЫ</t>
+  </si>
+  <si>
+    <t>無料スロット</t>
+  </si>
+  <si>
+    <r>
+      <t>무료</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>슬롯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>FREI SLOTS</t>
   </si>
   <si>
     <t>Slots_Win</t>
@@ -6526,13 +6555,13 @@
     <t>Tips_ClickUnlockOfferwall</t>
   </si>
   <si>
-    <t>Unlock at level 4.</t>
-  </si>
-  <si>
-    <t>Разблокируется на уровне 4.</t>
-  </si>
-  <si>
-    <t>レベル4でロック解除。</t>
+    <t>Unlock at level 2.</t>
+  </si>
+  <si>
+    <t>Разблокируется на уровне 2.</t>
+  </si>
+  <si>
+    <t>レベル2でロック解除。</t>
   </si>
   <si>
     <r>
@@ -6551,7 +6580,7 @@
         <rFont val="微软雅黑"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve"> 4</t>
+      <t xml:space="preserve"> 2</t>
     </r>
     <r>
       <rPr>
@@ -6609,7 +6638,7 @@
     </r>
   </si>
   <si>
-    <t>Unlock auf Ebene 4.</t>
+    <t>Unlock auf Ebene 2.</t>
   </si>
   <si>
     <t>Tips_EmptyEmail</t>
@@ -11528,28 +11557,28 @@
     </font>
     <font>
       <sz val="11"/>
-      <name val="微软雅黑"/>
+      <color theme="1"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11561,7 +11590,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11569,7 +11598,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11594,6 +11623,37 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11629,25 +11689,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11660,26 +11704,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="MS Gothic"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -11709,19 +11738,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11739,31 +11870,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11775,43 +11906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11823,73 +11918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11935,8 +11964,62 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -11958,15 +12041,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -11979,53 +12053,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12037,10 +12066,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12049,16 +12078,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12067,119 +12096,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12240,10 +12269,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12783,10 +12815,10 @@
   <sheetPr/>
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A121" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E136" sqref="E136"/>
+      <selection pane="topRight" activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
@@ -13813,7 +13845,7 @@
       <c r="D52" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="20" t="s">
         <v>282</v>
       </c>
       <c r="F52" s="8" t="s">
@@ -13884,7 +13916,7 @@
       <c r="A56" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="20" t="s">
+      <c r="B56" s="21" t="s">
         <v>302</v>
       </c>
       <c r="C56" s="8" t="s">
@@ -13904,7 +13936,7 @@
       <c r="A57" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="20" t="s">
+      <c r="B57" s="21" t="s">
         <v>308</v>
       </c>
       <c r="C57" s="8" t="s">
@@ -13924,7 +13956,7 @@
       <c r="A58" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="20" t="s">
+      <c r="B58" s="21" t="s">
         <v>314</v>
       </c>
       <c r="C58" s="8" t="s">
@@ -14004,7 +14036,7 @@
       <c r="A62" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="20" t="s">
+      <c r="B62" s="21" t="s">
         <v>338</v>
       </c>
       <c r="C62" s="8" t="s">
@@ -14164,7 +14196,7 @@
       <c r="A70" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="21" t="s">
+      <c r="B70" s="22" t="s">
         <v>382</v>
       </c>
       <c r="C70" s="8" t="s">
@@ -14344,19 +14376,19 @@
       <c r="A79" s="13" t="s">
         <v>430</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="23" t="s">
         <v>431</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="23" t="s">
         <v>432</v>
       </c>
-      <c r="D79" s="22" t="s">
+      <c r="D79" s="23" t="s">
         <v>433</v>
       </c>
-      <c r="E79" s="22" t="s">
+      <c r="E79" s="23" t="s">
         <v>434</v>
       </c>
-      <c r="F79" s="22" t="s">
+      <c r="F79" s="23" t="s">
         <v>435</v>
       </c>
     </row>
@@ -14364,19 +14396,19 @@
       <c r="A80" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="23" t="s">
         <v>437</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="23" t="s">
         <v>438</v>
       </c>
-      <c r="D80" s="22" t="s">
+      <c r="D80" s="23" t="s">
         <v>439</v>
       </c>
-      <c r="E80" s="22" t="s">
+      <c r="E80" s="23" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="22" t="s">
+      <c r="F80" s="23" t="s">
         <v>441</v>
       </c>
     </row>
@@ -14384,19 +14416,19 @@
       <c r="A81" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="23" t="s">
         <v>444</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="E81" s="22" t="s">
+      <c r="E81" s="23" t="s">
         <v>446</v>
       </c>
-      <c r="F81" s="22" t="s">
+      <c r="F81" s="23" t="s">
         <v>447</v>
       </c>
     </row>
@@ -15173,7 +15205,7 @@
       <c r="D120" s="8" t="s">
         <v>674</v>
       </c>
-      <c r="E120" s="8" t="s">
+      <c r="E120" s="20" t="s">
         <v>675</v>
       </c>
       <c r="F120" s="8" t="s">
@@ -15407,7 +15439,7 @@
       <c r="B132" s="14" t="s">
         <v>742</v>
       </c>
-      <c r="C132" s="23" t="s">
+      <c r="C132" s="24" t="s">
         <v>743</v>
       </c>
       <c r="D132" s="15" t="s">
@@ -15504,7 +15536,7 @@
       <c r="A137" s="13" t="s">
         <v>771</v>
       </c>
-      <c r="B137" s="22" t="s">
+      <c r="B137" s="23" t="s">
         <v>772</v>
       </c>
       <c r="C137" s="8" t="s">
@@ -15524,7 +15556,7 @@
       <c r="A138" s="13" t="s">
         <v>777</v>
       </c>
-      <c r="B138" s="22" t="s">
+      <c r="B138" s="23" t="s">
         <v>778</v>
       </c>
       <c r="C138" s="16" t="s">

--- a/Assets/Language.xlsx
+++ b/Assets/Language.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="785">
   <si>
     <t xml:space="preserve">内                                     国 </t>
   </si>
@@ -2607,6 +2607,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>무료</t>
     </r>
     <r>
@@ -5158,6 +5164,12 @@
   </si>
   <si>
     <t>Spiele Lucy mit Tickets Draw Geld zu verdienen. Gute Lucy!</t>
+  </si>
+  <si>
+    <t>Guide4</t>
+  </si>
+  <si>
+    <t>Check in 15 days, you can receive the money!</t>
   </si>
   <si>
     <t>InviteOk_Tip</t>
@@ -11536,12 +11548,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -11568,17 +11580,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -11589,8 +11613,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11598,7 +11630,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11628,9 +11660,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -11653,13 +11707,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -11667,43 +11714,14 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -11723,12 +11741,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -11738,97 +11762,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11846,7 +11780,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11858,13 +11918,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11876,19 +11930,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11900,25 +11942,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -11971,30 +11995,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -12005,21 +12014,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12041,6 +12035,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -12050,11 +12053,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -12066,10 +12090,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12078,37 +12102,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -12117,98 +12138,101 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -12219,6 +12243,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -12260,7 +12287,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -12279,6 +12306,15 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -12813,18 +12849,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F139"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A79" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F52" sqref="F52"/>
+      <selection pane="topRight" activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="29.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="158.916666666667" style="5" customWidth="1"/>
+    <col min="1" max="1" width="29.375" style="5" customWidth="1"/>
+    <col min="2" max="2" width="158.916666666667" style="6" customWidth="1"/>
     <col min="3" max="3" width="104.458333333333" style="2" customWidth="1"/>
     <col min="4" max="4" width="105.541666666667" style="2" customWidth="1"/>
     <col min="5" max="5" width="118.583333333333" style="2" customWidth="1"/>
@@ -12833,10 +12869,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -12845,2731 +12881,2743 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="8"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="17.25" spans="1:6">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="9" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="9" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="9" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="9" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E14" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="F14" s="9" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B15" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="8" t="s">
+      <c r="E15" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="F15" s="9" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="15" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="15" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="D18" s="8" t="s">
+      <c r="D18" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E18" s="8" t="s">
+      <c r="E18" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="F18" s="9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="9" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="C20" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="E20" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="F20" s="9" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="C21" s="8" t="s">
+      <c r="C21" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="F21" s="9" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="F22" s="9" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="E23" s="8" t="s">
+      <c r="E23" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="9" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="8" t="s">
+      <c r="C24" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="9" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="8" t="s">
+      <c r="E25" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="8" t="s">
+      <c r="D26" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="E26" s="8" t="s">
+      <c r="E26" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="9" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="D28" s="8" t="s">
+      <c r="D28" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="E28" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="9" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="8" t="s">
+      <c r="C29" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="D29" s="8" t="s">
+      <c r="D29" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E29" s="8" t="s">
+      <c r="E29" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="9" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="14" t="s">
         <v>152</v>
       </c>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="E30" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="14" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="9" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C32" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E32" s="8" t="s">
+      <c r="E32" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="9" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="33" ht="33" spans="1:6">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="14" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="16" t="s">
         <v>172</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="16" t="s">
         <v>173</v>
       </c>
-      <c r="E33" s="15" t="s">
+      <c r="E33" s="16" t="s">
         <v>174</v>
       </c>
-      <c r="F33" s="15" t="s">
+      <c r="F33" s="16" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>176</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="D34" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="F34" s="9" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="C35" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="D35" s="8" t="s">
+      <c r="D35" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="F35" s="8" t="s">
+      <c r="F35" s="9" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="15" t="s">
         <v>189</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="8" t="s">
+      <c r="E36" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="9" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="14" t="s">
         <v>194</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C37" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="E37" s="8" t="s">
+      <c r="E37" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="9" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="C38" s="8" t="s">
+      <c r="C38" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E38" s="8" t="s">
+      <c r="E38" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="9" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="15" t="s">
         <v>206</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="C39" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="E39" s="8" t="s">
+      <c r="E39" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="9" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="C40" s="8" t="s">
+      <c r="C40" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="F40" s="8" t="s">
+      <c r="F40" s="9" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="15" t="s">
         <v>217</v>
       </c>
-      <c r="C41" s="8" t="s">
+      <c r="C41" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="D41" s="8" t="s">
+      <c r="D41" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="F41" s="8" t="s">
+      <c r="F41" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="9" t="s">
         <v>226</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="9" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="43" s="2" customFormat="1" spans="1:6">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B43" s="17" t="s">
+      <c r="B43" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C43" s="18" t="s">
+      <c r="C43" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="19" t="s">
         <v>231</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="20" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="15" t="s">
         <v>235</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="D44" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="9" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="15" t="s">
         <v>240</v>
       </c>
-      <c r="C45" s="8" t="s">
+      <c r="C45" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D45" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="14" t="s">
         <v>245</v>
       </c>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="15" t="s">
         <v>246</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="D46" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E46" s="8" t="s">
+      <c r="E46" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F46" s="8" t="s">
+      <c r="F46" s="9" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="14" t="s">
         <v>251</v>
       </c>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="15" t="s">
         <v>252</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="C47" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="D47" s="9" t="s">
         <v>254</v>
       </c>
-      <c r="E47" s="8" t="s">
+      <c r="E47" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="9" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="15" t="s">
         <v>258</v>
       </c>
-      <c r="C48" s="8" t="s">
+      <c r="C48" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="D48" s="8" t="s">
+      <c r="D48" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="E48" s="8" t="s">
+      <c r="E48" s="9" t="s">
         <v>261</v>
       </c>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="9" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="14" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="15" t="s">
         <v>264</v>
       </c>
-      <c r="C49" s="16" t="s">
+      <c r="C49" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="D49" s="16" t="s">
+      <c r="D49" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E49" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="9" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="14" t="s">
         <v>269</v>
       </c>
-      <c r="B50" s="14" t="s">
+      <c r="B50" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="C50" s="8" t="s">
+      <c r="C50" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="D50" s="8" t="s">
+      <c r="D50" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E50" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="9" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="14" t="s">
         <v>275</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="15" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="9" t="s">
         <v>277</v>
       </c>
-      <c r="D51" s="8" t="s">
+      <c r="D51" s="9" t="s">
         <v>248</v>
       </c>
-      <c r="E51" s="8" t="s">
+      <c r="E51" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="9" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="52" s="2" customFormat="1" spans="1:6">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="14" t="s">
         <v>278</v>
       </c>
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="C52" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="D52" s="8" t="s">
+      <c r="D52" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="21" t="s">
         <v>282</v>
       </c>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="9" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="14" t="s">
         <v>284</v>
       </c>
-      <c r="B53" s="14" t="s">
+      <c r="B53" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C53" s="16" t="s">
+      <c r="C53" s="17" t="s">
         <v>286</v>
       </c>
-      <c r="D53" s="16" t="s">
+      <c r="D53" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="9" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="14" t="s">
         <v>289</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="15" t="s">
         <v>290</v>
       </c>
-      <c r="C54" s="8" t="s">
+      <c r="C54" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="D54" s="8" t="s">
+      <c r="D54" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="F54" s="8" t="s">
+      <c r="F54" s="9" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="14" t="s">
         <v>295</v>
       </c>
-      <c r="B55" s="14" t="s">
+      <c r="B55" s="15" t="s">
         <v>296</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C55" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="D55" s="8" t="s">
+      <c r="D55" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="E55" s="8" t="s">
+      <c r="E55" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="9" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="14" t="s">
         <v>301</v>
       </c>
-      <c r="B56" s="21" t="s">
+      <c r="B56" s="22" t="s">
         <v>302</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="E56" s="8" t="s">
+      <c r="E56" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="9" t="s">
         <v>306</v>
       </c>
     </row>
     <row r="57" spans="1:6">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="14" t="s">
         <v>307</v>
       </c>
-      <c r="B57" s="21" t="s">
+      <c r="B57" s="22" t="s">
         <v>308</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>313</v>
       </c>
-      <c r="B58" s="21" t="s">
+      <c r="B58" s="22" t="s">
         <v>314</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="14" t="s">
         <v>319</v>
       </c>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="15" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="9" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="14" t="s">
         <v>325</v>
       </c>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="15" t="s">
         <v>326</v>
       </c>
-      <c r="C60" s="8" t="s">
+      <c r="C60" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="D60" s="8" t="s">
+      <c r="D60" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="E60" s="8" t="s">
+      <c r="E60" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="9" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="61" spans="1:6">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="14" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="C61" s="8" t="s">
+      <c r="C61" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="D61" s="8" t="s">
+      <c r="D61" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="E61" s="8" t="s">
+      <c r="E61" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="9" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B62" s="21" t="s">
+      <c r="B62" s="22" t="s">
         <v>338</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="9" t="s">
         <v>339</v>
       </c>
-      <c r="D62" s="8" t="s">
+      <c r="D62" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E62" s="8" t="s">
+      <c r="E62" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="9" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="14" t="s">
         <v>343</v>
       </c>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C63" s="9" t="s">
         <v>345</v>
       </c>
-      <c r="D63" s="8" t="s">
+      <c r="D63" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E63" s="8" t="s">
+      <c r="E63" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="9" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="14" t="s">
         <v>349</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="C64" s="9" t="s">
         <v>351</v>
       </c>
-      <c r="D64" s="8" t="s">
+      <c r="D64" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="E64" s="8" t="s">
+      <c r="E64" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="9" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="14" t="s">
         <v>355</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="C65" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="D65" s="8" t="s">
+      <c r="D65" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="E65" s="8" t="s">
+      <c r="E65" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="9" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="14" t="s">
         <v>361</v>
       </c>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="D66" s="8" t="s">
+      <c r="D66" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="9" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="14" t="s">
         <v>366</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C67" s="9" t="s">
         <v>367</v>
       </c>
-      <c r="D67" s="8" t="s">
+      <c r="D67" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E67" s="8" t="s">
+      <c r="E67" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="9" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="14" t="s">
         <v>371</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="C68" s="9" t="s">
         <v>373</v>
       </c>
-      <c r="D68" s="8" t="s">
+      <c r="D68" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="E68" s="8" t="s">
+      <c r="E68" s="9" t="s">
         <v>375</v>
       </c>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="9" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="14" t="s">
         <v>377</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="C69" s="9" t="s">
         <v>378</v>
       </c>
-      <c r="D69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="E69" s="8" t="s">
+      <c r="E69" s="9" t="s">
         <v>380</v>
       </c>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="9" t="s">
         <v>381</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="23" t="s">
         <v>382</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C70" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D70" s="8" t="s">
+      <c r="D70" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="9" t="s">
         <v>385</v>
       </c>
-      <c r="F70" s="8" t="s">
+      <c r="F70" s="9" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="C71" s="8" t="s">
+      <c r="C71" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="D71" s="8" t="s">
+      <c r="D71" s="9" t="s">
         <v>389</v>
       </c>
-      <c r="E71" s="8" t="s">
+      <c r="E71" s="9" t="s">
         <v>388</v>
       </c>
-      <c r="F71" s="8" t="s">
+      <c r="F71" s="9" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="14" t="s">
         <v>390</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="C72" s="8" t="s">
+      <c r="C72" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="D72" s="8" t="s">
+      <c r="D72" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="F72" s="8" t="s">
+      <c r="F72" s="9" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="14" t="s">
         <v>396</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="15" t="s">
         <v>397</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9" t="s">
         <v>398</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D73" s="9" t="s">
         <v>399</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="9" t="s">
         <v>400</v>
       </c>
-      <c r="F73" s="8" t="s">
+      <c r="F73" s="9" t="s">
         <v>401</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="C74" s="8" t="s">
+      <c r="C74" s="9" t="s">
         <v>404</v>
       </c>
-      <c r="D74" s="8" t="s">
+      <c r="D74" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="E74" s="8" t="s">
+      <c r="E74" s="9" t="s">
         <v>406</v>
       </c>
-      <c r="F74" s="8" t="s">
+      <c r="F74" s="9" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="15" t="s">
         <v>409</v>
       </c>
-      <c r="C75" s="8" t="s">
+      <c r="C75" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="E75" s="9" t="s">
         <v>411</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="F75" s="9" t="s">
         <v>412</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="14" t="s">
         <v>413</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="15" t="s">
         <v>414</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="9" t="s">
         <v>415</v>
       </c>
-      <c r="D76" s="8" t="s">
+      <c r="D76" s="9" t="s">
         <v>416</v>
       </c>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="9" t="s">
         <v>417</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="9" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="C77" s="8" t="s">
+      <c r="C77" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="D77" s="8" t="s">
+      <c r="D77" s="9" t="s">
         <v>420</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="E77" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="F77" s="8" t="s">
+      <c r="F77" s="9" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="14" t="s">
         <v>424</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="9" t="s">
         <v>426</v>
       </c>
-      <c r="D78" s="8" t="s">
+      <c r="D78" s="9" t="s">
         <v>427</v>
       </c>
-      <c r="E78" s="8" t="s">
+      <c r="E78" s="9" t="s">
         <v>428</v>
       </c>
-      <c r="F78" s="8" t="s">
+      <c r="F78" s="9" t="s">
         <v>429</v>
       </c>
     </row>
     <row r="79" s="3" customFormat="1" spans="1:6">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="14" t="s">
         <v>430</v>
       </c>
-      <c r="B79" s="23" t="s">
+      <c r="B79" s="24" t="s">
         <v>431</v>
       </c>
-      <c r="C79" s="23" t="s">
+      <c r="C79" s="24" t="s">
         <v>432</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="24" t="s">
         <v>433</v>
       </c>
-      <c r="E79" s="23" t="s">
+      <c r="E79" s="24" t="s">
         <v>434</v>
       </c>
-      <c r="F79" s="23" t="s">
+      <c r="F79" s="24" t="s">
         <v>435</v>
       </c>
     </row>
     <row r="80" s="3" customFormat="1" spans="1:6">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="14" t="s">
         <v>436</v>
       </c>
-      <c r="B80" s="23" t="s">
+      <c r="B80" s="24" t="s">
         <v>437</v>
       </c>
-      <c r="C80" s="23" t="s">
+      <c r="C80" s="24" t="s">
         <v>438</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="24" t="s">
         <v>439</v>
       </c>
-      <c r="E80" s="23" t="s">
+      <c r="E80" s="24" t="s">
         <v>440</v>
       </c>
-      <c r="F80" s="23" t="s">
+      <c r="F80" s="24" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="81" s="3" customFormat="1" spans="1:6">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="14" t="s">
         <v>442</v>
       </c>
-      <c r="B81" s="23" t="s">
+      <c r="B81" s="24" t="s">
         <v>443</v>
       </c>
-      <c r="C81" s="23" t="s">
+      <c r="C81" s="24" t="s">
         <v>444</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="24" t="s">
         <v>445</v>
       </c>
-      <c r="E81" s="23" t="s">
+      <c r="E81" s="24" t="s">
         <v>446</v>
       </c>
-      <c r="F81" s="23" t="s">
+      <c r="F81" s="24" t="s">
         <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:6">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="14" t="s">
         <v>448</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="15" t="s">
         <v>449</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="9" t="s">
         <v>450</v>
       </c>
-      <c r="D82" s="8" t="s">
+      <c r="D82" s="9" t="s">
         <v>451</v>
       </c>
-      <c r="E82" s="8" t="s">
+      <c r="E82" s="9" t="s">
         <v>452</v>
       </c>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="9" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="83" spans="1:6">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="14" t="s">
         <v>454</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="C83" s="9" t="s">
         <v>455</v>
       </c>
-      <c r="D83" s="8" t="s">
+      <c r="D83" s="9" t="s">
         <v>456</v>
       </c>
-      <c r="E83" s="8" t="s">
+      <c r="E83" s="9" t="s">
         <v>457</v>
       </c>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="9" t="s">
         <v>458</v>
       </c>
     </row>
     <row r="84" spans="1:6">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="14" t="s">
         <v>459</v>
       </c>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="15" t="s">
         <v>460</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="C84" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D84" s="8" t="s">
+      <c r="D84" s="9" t="s">
         <v>462</v>
       </c>
-      <c r="E84" s="8" t="s">
+      <c r="E84" s="9" t="s">
         <v>463</v>
       </c>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="9" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="85" ht="66" spans="1:6">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="14" t="s">
         <v>465</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="15" t="s">
         <v>466</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C85" s="16" t="s">
         <v>467</v>
       </c>
-      <c r="D85" s="15" t="s">
+      <c r="D85" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="E85" s="15" t="s">
+      <c r="E85" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="F85" s="15" t="s">
+      <c r="F85" s="16" t="s">
         <v>470</v>
       </c>
     </row>
     <row r="86" ht="33" spans="1:6">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="14" t="s">
         <v>471</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="15" t="s">
         <v>472</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C86" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="D86" s="15" t="s">
+      <c r="D86" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="E86" s="15" t="s">
+      <c r="E86" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="F86" s="15" t="s">
+      <c r="F86" s="16" t="s">
         <v>476</v>
       </c>
     </row>
     <row r="87" spans="1:6">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="14" t="s">
         <v>477</v>
       </c>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="9" t="s">
         <v>479</v>
       </c>
-      <c r="D87" s="8" t="s">
+      <c r="D87" s="9" t="s">
         <v>480</v>
       </c>
-      <c r="E87" s="8" t="s">
+      <c r="E87" s="9" t="s">
         <v>481</v>
       </c>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="9" t="s">
         <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:6">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="14" t="s">
         <v>483</v>
       </c>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="15" t="s">
         <v>484</v>
       </c>
-      <c r="C88" s="8" t="s">
+      <c r="C88" s="9" t="s">
         <v>485</v>
       </c>
-      <c r="D88" s="8" t="s">
+      <c r="D88" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="F88" s="8" t="s">
+      <c r="F88" s="9" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="89" spans="1:6">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="14" t="s">
         <v>489</v>
       </c>
-      <c r="B89" s="14" t="s">
+      <c r="B89" s="15" t="s">
         <v>490</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="C89" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D89" s="8" t="s">
+      <c r="D89" s="9" t="s">
         <v>492</v>
       </c>
-      <c r="E89" s="8" t="s">
+      <c r="E89" s="9" t="s">
         <v>493</v>
       </c>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="9" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="14" t="s">
         <v>495</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="15" t="s">
         <v>495</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="9" t="s">
         <v>496</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="E90" s="8" t="s">
+      <c r="E90" s="9" t="s">
         <v>498</v>
       </c>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="9" t="s">
         <v>499</v>
       </c>
     </row>
     <row r="91" spans="1:6">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="14" t="s">
         <v>500</v>
       </c>
-      <c r="B91" s="14" t="s">
+      <c r="B91" s="15" t="s">
         <v>501</v>
       </c>
-      <c r="C91" s="8" t="s">
+      <c r="C91" s="9" t="s">
         <v>502</v>
       </c>
-      <c r="D91" s="8" t="s">
+      <c r="D91" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="E91" s="8" t="s">
+      <c r="E91" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="9" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:6">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="14" t="s">
         <v>506</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="15" t="s">
         <v>507</v>
       </c>
-      <c r="C92" s="16" t="s">
+      <c r="C92" s="17" t="s">
         <v>508</v>
       </c>
-      <c r="D92" s="16" t="s">
+      <c r="D92" s="17" t="s">
         <v>509</v>
       </c>
-      <c r="E92" s="8" t="s">
+      <c r="E92" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="9" t="s">
         <v>511</v>
       </c>
     </row>
     <row r="93" ht="33" spans="1:6">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="14" t="s">
         <v>512</v>
       </c>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="15" t="s">
         <v>513</v>
       </c>
-      <c r="C93" s="15" t="s">
+      <c r="C93" s="16" t="s">
         <v>514</v>
       </c>
-      <c r="D93" s="15" t="s">
+      <c r="D93" s="16" t="s">
         <v>515</v>
       </c>
-      <c r="E93" s="15" t="s">
+      <c r="E93" s="16" t="s">
         <v>516</v>
       </c>
-      <c r="F93" s="15" t="s">
+      <c r="F93" s="16" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="94" ht="33" spans="1:6">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="14" t="s">
         <v>518</v>
       </c>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="C94" s="15" t="s">
+      <c r="C94" s="16" t="s">
         <v>520</v>
       </c>
-      <c r="D94" s="15" t="s">
+      <c r="D94" s="16" t="s">
         <v>521</v>
       </c>
-      <c r="E94" s="15" t="s">
+      <c r="E94" s="16" t="s">
         <v>522</v>
       </c>
-      <c r="F94" s="15" t="s">
+      <c r="F94" s="16" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="95" ht="33" spans="1:6">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="14" t="s">
         <v>524</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="15" t="s">
         <v>525</v>
       </c>
-      <c r="C95" s="15" t="s">
+      <c r="C95" s="16" t="s">
         <v>526</v>
       </c>
-      <c r="D95" s="15" t="s">
+      <c r="D95" s="16" t="s">
         <v>527</v>
       </c>
-      <c r="E95" s="15" t="s">
+      <c r="E95" s="16" t="s">
         <v>528</v>
       </c>
-      <c r="F95" s="15" t="s">
+      <c r="F95" s="16" t="s">
         <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:6">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="14" t="s">
         <v>530</v>
       </c>
-      <c r="B96" s="14" t="s">
+      <c r="B96" s="15" t="s">
         <v>531</v>
       </c>
-      <c r="C96" s="8" t="s">
+      <c r="C96" s="9" t="s">
         <v>532</v>
       </c>
-      <c r="D96" s="8" t="s">
+      <c r="D96" s="9" t="s">
         <v>533</v>
       </c>
-      <c r="E96" s="8" t="s">
+      <c r="E96" s="9" t="s">
         <v>534</v>
       </c>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="9" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="97" spans="1:6">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="B97" s="14" t="s">
+      <c r="B97" s="15" t="s">
         <v>537</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="9" t="s">
         <v>538</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="D97" s="9" t="s">
         <v>539</v>
       </c>
-      <c r="E97" s="8" t="s">
+      <c r="E97" s="9" t="s">
         <v>540</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="9" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="98" spans="1:6">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="B98" s="14" t="s">
+      <c r="B98" s="15" t="s">
         <v>543</v>
       </c>
-      <c r="C98" s="8" t="s">
+      <c r="C98" s="9" t="s">
         <v>544</v>
       </c>
-      <c r="D98" s="8" t="s">
+      <c r="D98" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="E98" s="8" t="s">
+      <c r="E98" s="9" t="s">
         <v>546</v>
       </c>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="9" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
-      <c r="A99" s="13" t="s">
+    <row r="99" s="4" customFormat="1" spans="1:6">
+      <c r="A99" s="25" t="s">
         <v>548</v>
       </c>
-      <c r="B99" s="14" t="s">
+      <c r="B99" s="26" t="s">
         <v>549</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>550</v>
-      </c>
-      <c r="D99" s="8" t="s">
-        <v>551</v>
-      </c>
-      <c r="E99" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>553</v>
-      </c>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
     </row>
     <row r="100" spans="1:6">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="14" t="s">
+        <v>550</v>
+      </c>
+      <c r="B100" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>552</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>553</v>
+      </c>
+      <c r="E100" s="9" t="s">
         <v>554</v>
       </c>
-      <c r="B100" s="14" t="s">
-        <v>554</v>
-      </c>
-      <c r="C100" s="8" t="s">
+      <c r="F100" s="9" t="s">
         <v>555</v>
-      </c>
-      <c r="D100" s="8" t="s">
-        <v>556</v>
-      </c>
-      <c r="E100" s="8" t="s">
-        <v>557</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="101" spans="1:6">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="14" t="s">
+        <v>556</v>
+      </c>
+      <c r="B101" s="15" t="s">
+        <v>556</v>
+      </c>
+      <c r="C101" s="9" t="s">
+        <v>557</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>558</v>
+      </c>
+      <c r="E101" s="9" t="s">
         <v>559</v>
       </c>
-      <c r="B101" s="14" t="s">
+      <c r="F101" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="C101" s="8" t="s">
-        <v>561</v>
-      </c>
-      <c r="D101" s="8" t="s">
-        <v>562</v>
-      </c>
-      <c r="E101" s="8" t="s">
-        <v>563</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:6">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="B102" s="15" t="s">
+        <v>562</v>
+      </c>
+      <c r="C102" s="9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>564</v>
+      </c>
+      <c r="E102" s="9" t="s">
         <v>565</v>
       </c>
-      <c r="B102" s="14" t="s">
-        <v>565</v>
-      </c>
-      <c r="C102" s="8" t="s">
+      <c r="F102" s="9" t="s">
         <v>566</v>
-      </c>
-      <c r="D102" s="8" t="s">
-        <v>567</v>
-      </c>
-      <c r="E102" s="8" t="s">
-        <v>568</v>
-      </c>
-      <c r="F102" s="8" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="103" spans="1:6">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="14" t="s">
+        <v>567</v>
+      </c>
+      <c r="B103" s="15" t="s">
+        <v>567</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>568</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>569</v>
+      </c>
+      <c r="E103" s="9" t="s">
         <v>570</v>
       </c>
-      <c r="B103" s="14" t="s">
+      <c r="F103" s="9" t="s">
         <v>571</v>
-      </c>
-      <c r="C103" s="8" t="s">
-        <v>572</v>
-      </c>
-      <c r="D103" s="8" t="s">
-        <v>573</v>
-      </c>
-      <c r="E103" s="8" t="s">
-        <v>574</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="104" spans="1:6">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="14" t="s">
+        <v>572</v>
+      </c>
+      <c r="B104" s="15" t="s">
+        <v>573</v>
+      </c>
+      <c r="C104" s="9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D104" s="9" t="s">
+        <v>575</v>
+      </c>
+      <c r="E104" s="9" t="s">
         <v>576</v>
       </c>
-      <c r="B104" s="14" t="s">
+      <c r="F104" s="9" t="s">
         <v>577</v>
-      </c>
-      <c r="C104" s="8" t="s">
-        <v>578</v>
-      </c>
-      <c r="D104" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="E104" s="8" t="s">
-        <v>580</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="105" spans="1:6">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="14" t="s">
+        <v>578</v>
+      </c>
+      <c r="B105" s="15" t="s">
+        <v>579</v>
+      </c>
+      <c r="C105" s="9" t="s">
+        <v>580</v>
+      </c>
+      <c r="D105" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E105" s="9" t="s">
         <v>582</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="F105" s="9" t="s">
         <v>583</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>584</v>
-      </c>
-      <c r="D105" s="8" t="s">
-        <v>585</v>
-      </c>
-      <c r="E105" s="8" t="s">
-        <v>586</v>
-      </c>
-      <c r="F105" s="8" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="106" spans="1:6">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="14" t="s">
+        <v>584</v>
+      </c>
+      <c r="B106" s="15" t="s">
+        <v>585</v>
+      </c>
+      <c r="C106" s="9" t="s">
+        <v>586</v>
+      </c>
+      <c r="D106" s="9" t="s">
+        <v>587</v>
+      </c>
+      <c r="E106" s="9" t="s">
         <v>588</v>
       </c>
-      <c r="B106" s="14" t="s">
+      <c r="F106" s="9" t="s">
         <v>589</v>
-      </c>
-      <c r="C106" s="8" t="s">
-        <v>590</v>
-      </c>
-      <c r="D106" s="8" t="s">
-        <v>591</v>
-      </c>
-      <c r="E106" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="F106" s="8" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="107" spans="1:6">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="14" t="s">
+        <v>590</v>
+      </c>
+      <c r="B107" s="15" t="s">
+        <v>591</v>
+      </c>
+      <c r="C107" s="9" t="s">
+        <v>592</v>
+      </c>
+      <c r="D107" s="9" t="s">
         <v>593</v>
       </c>
-      <c r="B107" s="14" t="s">
+      <c r="E107" s="9" t="s">
         <v>594</v>
       </c>
-      <c r="C107" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="D107" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>597</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>598</v>
+      <c r="F107" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="108" spans="1:6">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="14" t="s">
+        <v>595</v>
+      </c>
+      <c r="B108" s="15" t="s">
+        <v>596</v>
+      </c>
+      <c r="C108" s="9" t="s">
+        <v>597</v>
+      </c>
+      <c r="D108" s="9" t="s">
+        <v>598</v>
+      </c>
+      <c r="E108" s="9" t="s">
         <v>599</v>
       </c>
-      <c r="B108" s="14" t="s">
+      <c r="F108" s="9" t="s">
         <v>600</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>601</v>
-      </c>
-      <c r="D108" s="8" t="s">
-        <v>602</v>
-      </c>
-      <c r="E108" s="8" t="s">
-        <v>603</v>
-      </c>
-      <c r="F108" s="8" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="109" spans="1:6">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="B109" s="15" t="s">
+        <v>602</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>603</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>604</v>
+      </c>
+      <c r="E109" s="9" t="s">
         <v>605</v>
       </c>
-      <c r="B109" s="14" t="s">
+      <c r="F109" s="9" t="s">
         <v>606</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>607</v>
-      </c>
-      <c r="D109" s="8" t="s">
-        <v>608</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>609</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="110" spans="1:6">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="14" t="s">
+        <v>607</v>
+      </c>
+      <c r="B110" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C110" s="9" t="s">
+        <v>609</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>610</v>
+      </c>
+      <c r="E110" s="9" t="s">
         <v>611</v>
       </c>
-      <c r="B110" s="14" t="s">
+      <c r="F110" s="9" t="s">
         <v>612</v>
-      </c>
-      <c r="C110" s="16" t="s">
-        <v>613</v>
-      </c>
-      <c r="D110" s="16" t="s">
-        <v>614</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="111" spans="1:6">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="14" t="s">
+        <v>613</v>
+      </c>
+      <c r="B111" s="15" t="s">
+        <v>614</v>
+      </c>
+      <c r="C111" s="17" t="s">
+        <v>615</v>
+      </c>
+      <c r="D111" s="17" t="s">
+        <v>616</v>
+      </c>
+      <c r="E111" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="B111" s="14" t="s">
+      <c r="F111" s="9" t="s">
         <v>618</v>
-      </c>
-      <c r="C111" s="16" t="s">
-        <v>619</v>
-      </c>
-      <c r="D111" s="16" t="s">
-        <v>620</v>
-      </c>
-      <c r="E111" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="112" spans="1:6">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B112" s="15" t="s">
+        <v>620</v>
+      </c>
+      <c r="C112" s="17" t="s">
+        <v>621</v>
+      </c>
+      <c r="D112" s="17" t="s">
+        <v>622</v>
+      </c>
+      <c r="E112" s="9" t="s">
         <v>623</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="F112" s="9" t="s">
         <v>624</v>
-      </c>
-      <c r="C112" s="16" t="s">
-        <v>625</v>
-      </c>
-      <c r="D112" s="16" t="s">
-        <v>626</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="F112" s="8" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="113" spans="1:6">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="14" t="s">
+        <v>625</v>
+      </c>
+      <c r="B113" s="15" t="s">
+        <v>626</v>
+      </c>
+      <c r="C113" s="17" t="s">
+        <v>627</v>
+      </c>
+      <c r="D113" s="17" t="s">
+        <v>628</v>
+      </c>
+      <c r="E113" s="9" t="s">
         <v>629</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="F113" s="9" t="s">
         <v>630</v>
-      </c>
-      <c r="C113" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="D113" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="E113" s="8" t="s">
-        <v>633</v>
-      </c>
-      <c r="F113" s="8" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="114" spans="1:6">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="14" t="s">
+        <v>631</v>
+      </c>
+      <c r="B114" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="C114" s="17" t="s">
+        <v>633</v>
+      </c>
+      <c r="D114" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="E114" s="9" t="s">
         <v>635</v>
       </c>
-      <c r="B114" s="14" t="s">
+      <c r="F114" s="9" t="s">
         <v>636</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>637</v>
-      </c>
-      <c r="D114" s="8" t="s">
-        <v>638</v>
-      </c>
-      <c r="E114" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="F114" s="8" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:6">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="14" t="s">
+        <v>637</v>
+      </c>
+      <c r="B115" s="15" t="s">
+        <v>638</v>
+      </c>
+      <c r="C115" s="9" t="s">
+        <v>639</v>
+      </c>
+      <c r="D115" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="E115" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="F115" s="9" t="s">
         <v>642</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>643</v>
-      </c>
-      <c r="D115" s="8" t="s">
-        <v>644</v>
-      </c>
-      <c r="E115" s="8" t="s">
-        <v>645</v>
-      </c>
-      <c r="F115" s="8" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="116" spans="1:6">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="14" t="s">
+        <v>643</v>
+      </c>
+      <c r="B116" s="15" t="s">
+        <v>644</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>645</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>646</v>
+      </c>
+      <c r="E116" s="9" t="s">
         <v>647</v>
       </c>
-      <c r="B116" s="14" t="s">
+      <c r="F116" s="9" t="s">
         <v>648</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="D116" s="8" t="s">
-        <v>650</v>
-      </c>
-      <c r="E116" s="8" t="s">
-        <v>651</v>
-      </c>
-      <c r="F116" s="8" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="117" spans="1:6">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="14" t="s">
+        <v>649</v>
+      </c>
+      <c r="B117" s="15" t="s">
+        <v>650</v>
+      </c>
+      <c r="C117" s="9" t="s">
+        <v>651</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="E117" s="9" t="s">
         <v>653</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="F117" s="9" t="s">
         <v>654</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="D117" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="E117" s="8" t="s">
-        <v>657</v>
-      </c>
-      <c r="F117" s="8" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="118" spans="1:6">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="14" t="s">
+        <v>655</v>
+      </c>
+      <c r="B118" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>658</v>
+      </c>
+      <c r="E118" s="9" t="s">
         <v>659</v>
       </c>
-      <c r="B118" s="14" t="s">
+      <c r="F118" s="9" t="s">
         <v>660</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>661</v>
-      </c>
-      <c r="D118" s="8" t="s">
-        <v>662</v>
-      </c>
-      <c r="E118" s="8" t="s">
-        <v>663</v>
-      </c>
-      <c r="F118" s="8" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="119" spans="1:6">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="14" t="s">
+        <v>661</v>
+      </c>
+      <c r="B119" s="15" t="s">
+        <v>662</v>
+      </c>
+      <c r="C119" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>664</v>
+      </c>
+      <c r="E119" s="9" t="s">
         <v>665</v>
       </c>
-      <c r="B119" s="14" t="s">
+      <c r="F119" s="9" t="s">
         <v>666</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="D119" s="8" t="s">
-        <v>668</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="F119" s="8" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="120" spans="1:6">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B120" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="C120" s="9" t="s">
+        <v>669</v>
+      </c>
+      <c r="D120" s="9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>671</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="F120" s="9" t="s">
         <v>672</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="D120" s="8" t="s">
-        <v>674</v>
-      </c>
-      <c r="E120" s="20" t="s">
-        <v>675</v>
-      </c>
-      <c r="F120" s="8" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="121" spans="1:6">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="14" t="s">
+        <v>673</v>
+      </c>
+      <c r="B121" s="15" t="s">
+        <v>674</v>
+      </c>
+      <c r="C121" s="9" t="s">
+        <v>675</v>
+      </c>
+      <c r="D121" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="E121" s="21" t="s">
         <v>677</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="F121" s="9" t="s">
         <v>678</v>
-      </c>
-      <c r="C121" s="19" t="s">
-        <v>679</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>680</v>
-      </c>
-      <c r="E121" s="19" t="s">
-        <v>681</v>
-      </c>
-      <c r="F121" s="19" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="122" spans="1:6">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="14" t="s">
+        <v>679</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>680</v>
+      </c>
+      <c r="C122" s="20" t="s">
+        <v>681</v>
+      </c>
+      <c r="D122" s="20" t="s">
+        <v>682</v>
+      </c>
+      <c r="E122" s="20" t="s">
         <v>683</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="F122" s="20" t="s">
         <v>684</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>685</v>
-      </c>
-      <c r="D122" s="8" t="s">
-        <v>686</v>
-      </c>
-      <c r="E122" s="8" t="s">
-        <v>687</v>
-      </c>
-      <c r="F122" s="8" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="123" spans="1:6">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="14" t="s">
+        <v>685</v>
+      </c>
+      <c r="B123" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="C123" s="9" t="s">
+        <v>687</v>
+      </c>
+      <c r="D123" s="9" t="s">
+        <v>688</v>
+      </c>
+      <c r="E123" s="9" t="s">
         <v>689</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="F123" s="9" t="s">
         <v>690</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="D123" s="8" t="s">
-        <v>692</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>693</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>694</v>
       </c>
     </row>
     <row r="124" spans="1:6">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="14" t="s">
+        <v>691</v>
+      </c>
+      <c r="B124" s="15" t="s">
+        <v>692</v>
+      </c>
+      <c r="C124" s="9" t="s">
+        <v>693</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>694</v>
+      </c>
+      <c r="E124" s="9" t="s">
         <v>695</v>
       </c>
-      <c r="B124" s="14" t="s">
+      <c r="F124" s="9" t="s">
         <v>696</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>697</v>
-      </c>
-      <c r="D124" s="8" t="s">
-        <v>698</v>
-      </c>
-      <c r="E124" s="8" t="s">
-        <v>699</v>
-      </c>
-      <c r="F124" s="8" t="s">
-        <v>700</v>
       </c>
     </row>
     <row r="125" spans="1:6">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="14" t="s">
+        <v>697</v>
+      </c>
+      <c r="B125" s="15" t="s">
+        <v>698</v>
+      </c>
+      <c r="C125" s="9" t="s">
+        <v>699</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>700</v>
+      </c>
+      <c r="E125" s="9" t="s">
         <v>701</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="F125" s="9" t="s">
         <v>702</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>703</v>
-      </c>
-      <c r="D125" s="8" t="s">
-        <v>704</v>
-      </c>
-      <c r="E125" s="8" t="s">
-        <v>705</v>
-      </c>
-      <c r="F125" s="8" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="126" spans="1:6">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="14" t="s">
+        <v>703</v>
+      </c>
+      <c r="B126" s="15" t="s">
+        <v>704</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>705</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>706</v>
+      </c>
+      <c r="E126" s="9" t="s">
         <v>707</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="F126" s="9" t="s">
         <v>708</v>
       </c>
-      <c r="C126" s="8" t="s">
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="D126" s="8" t="s">
+      <c r="B127" s="15" t="s">
         <v>710</v>
       </c>
-      <c r="E126" s="8" t="s">
+      <c r="C127" s="9" t="s">
         <v>711</v>
       </c>
-      <c r="F126" s="8" t="s">
+      <c r="D127" s="9" t="s">
         <v>712</v>
       </c>
+      <c r="E127" s="9" t="s">
+        <v>713</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>714</v>
+      </c>
     </row>
-    <row r="127" ht="66" spans="1:6">
-      <c r="A127" s="13" t="s">
-        <v>713</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>714</v>
-      </c>
-      <c r="C127" s="15" t="s">
+    <row r="128" ht="66" spans="1:6">
+      <c r="A128" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="D127" s="15" t="s">
+      <c r="B128" s="15" t="s">
         <v>716</v>
       </c>
-      <c r="E127" s="15" t="s">
+      <c r="C128" s="16" t="s">
         <v>717</v>
       </c>
-      <c r="F127" s="15" t="s">
+      <c r="D128" s="16" t="s">
         <v>718</v>
       </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="13" t="s">
+      <c r="E128" s="16" t="s">
         <v>719</v>
       </c>
-      <c r="B128" s="14" t="s">
+      <c r="F128" s="16" t="s">
         <v>720</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="D128" s="8" t="s">
-        <v>722</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="129" spans="1:6">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="14" t="s">
+        <v>721</v>
+      </c>
+      <c r="B129" s="15" t="s">
+        <v>722</v>
+      </c>
+      <c r="C129" s="9" t="s">
+        <v>723</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>724</v>
+      </c>
+      <c r="E129" s="9" t="s">
         <v>725</v>
       </c>
-      <c r="B129" s="14" t="s">
+      <c r="F129" s="9" t="s">
         <v>726</v>
       </c>
-      <c r="C129" s="8" t="s">
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="14" t="s">
         <v>727</v>
       </c>
-      <c r="D129" s="8" t="s">
-        <v>579</v>
-      </c>
-      <c r="E129" s="8" t="s">
+      <c r="B130" s="15" t="s">
         <v>728</v>
       </c>
-      <c r="F129" s="8" t="s">
+      <c r="C130" s="9" t="s">
         <v>729</v>
       </c>
+      <c r="D130" s="9" t="s">
+        <v>581</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>730</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>731</v>
+      </c>
     </row>
-    <row r="130" ht="82.5" spans="1:6">
-      <c r="A130" s="13" t="s">
-        <v>730</v>
-      </c>
-      <c r="B130" s="14" t="s">
-        <v>731</v>
-      </c>
-      <c r="C130" s="15" t="s">
+    <row r="131" ht="82.5" spans="1:6">
+      <c r="A131" s="14" t="s">
         <v>732</v>
       </c>
-      <c r="D130" s="15" t="s">
+      <c r="B131" s="15" t="s">
         <v>733</v>
       </c>
-      <c r="E130" s="15" t="s">
+      <c r="C131" s="16" t="s">
         <v>734</v>
       </c>
-      <c r="F130" s="15" t="s">
+      <c r="D131" s="16" t="s">
         <v>735</v>
       </c>
+      <c r="E131" s="16" t="s">
+        <v>736</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>737</v>
+      </c>
     </row>
-    <row r="131" ht="66" spans="1:6">
-      <c r="A131" s="13" t="s">
-        <v>736</v>
-      </c>
-      <c r="B131" s="14" t="s">
-        <v>737</v>
-      </c>
-      <c r="C131" s="15" t="s">
+    <row r="132" ht="66" spans="1:6">
+      <c r="A132" s="14" t="s">
         <v>738</v>
       </c>
-      <c r="D131" s="15" t="s">
+      <c r="B132" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="E131" s="15" t="s">
+      <c r="C132" s="16" t="s">
         <v>740</v>
       </c>
-      <c r="F131" s="15" t="s">
-        <v>740</v>
+      <c r="D132" s="16" t="s">
+        <v>741</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>742</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>742</v>
       </c>
     </row>
-    <row r="132" ht="115.5" spans="1:6">
-      <c r="A132" s="13" t="s">
-        <v>741</v>
-      </c>
-      <c r="B132" s="14" t="s">
-        <v>742</v>
-      </c>
-      <c r="C132" s="24" t="s">
+    <row r="133" ht="115.5" spans="1:6">
+      <c r="A133" s="14" t="s">
         <v>743</v>
       </c>
-      <c r="D132" s="15" t="s">
+      <c r="B133" s="15" t="s">
         <v>744</v>
       </c>
-      <c r="E132" s="15" t="s">
+      <c r="C133" s="28" t="s">
         <v>745</v>
       </c>
-      <c r="F132" s="15" t="s">
+      <c r="D133" s="16" t="s">
         <v>746</v>
       </c>
+      <c r="E133" s="16" t="s">
+        <v>747</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>748</v>
+      </c>
     </row>
-    <row r="133" ht="66" spans="1:6">
-      <c r="A133" s="13" t="s">
-        <v>747</v>
-      </c>
-      <c r="B133" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="C133" s="15" t="s">
+    <row r="134" ht="66" spans="1:6">
+      <c r="A134" s="14" t="s">
         <v>749</v>
       </c>
-      <c r="D133" s="15" t="s">
+      <c r="B134" s="15" t="s">
         <v>750</v>
       </c>
-      <c r="E133" s="15" t="s">
+      <c r="C134" s="16" t="s">
         <v>751</v>
       </c>
-      <c r="F133" s="15" t="s">
+      <c r="D134" s="16" t="s">
         <v>752</v>
       </c>
+      <c r="E134" s="16" t="s">
+        <v>753</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>754</v>
+      </c>
     </row>
-    <row r="134" ht="132" spans="1:6">
-      <c r="A134" s="13" t="s">
-        <v>753</v>
-      </c>
-      <c r="B134" s="14" t="s">
-        <v>754</v>
-      </c>
-      <c r="C134" s="15" t="s">
+    <row r="135" ht="132" spans="1:6">
+      <c r="A135" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="D134" s="15" t="s">
+      <c r="B135" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="E134" s="15" t="s">
+      <c r="C135" s="16" t="s">
         <v>757</v>
       </c>
-      <c r="F134" s="15" t="s">
+      <c r="D135" s="16" t="s">
         <v>758</v>
       </c>
+      <c r="E135" s="16" t="s">
+        <v>759</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>760</v>
+      </c>
     </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="13" t="s">
-        <v>759</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>760</v>
-      </c>
-      <c r="C135" s="16" t="s">
+    <row r="136" spans="1:6">
+      <c r="A136" s="14" t="s">
         <v>761</v>
       </c>
-      <c r="D135" s="16" t="s">
+      <c r="B136" s="15" t="s">
         <v>762</v>
       </c>
-      <c r="E135" s="8" t="s">
+      <c r="C136" s="17" t="s">
         <v>763</v>
       </c>
-      <c r="F135" s="8" t="s">
+      <c r="D136" s="17" t="s">
         <v>764</v>
       </c>
+      <c r="E136" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>766</v>
+      </c>
     </row>
-    <row r="136" ht="82.5" spans="1:6">
-      <c r="A136" s="13" t="s">
-        <v>765</v>
-      </c>
-      <c r="B136" s="14" t="s">
-        <v>766</v>
-      </c>
-      <c r="C136" s="15" t="s">
+    <row r="137" ht="82.5" spans="1:6">
+      <c r="A137" s="14" t="s">
         <v>767</v>
       </c>
-      <c r="D136" s="15" t="s">
+      <c r="B137" s="15" t="s">
         <v>768</v>
       </c>
-      <c r="E136" s="15" t="s">
+      <c r="C137" s="16" t="s">
         <v>769</v>
       </c>
-      <c r="F136" s="15" t="s">
+      <c r="D137" s="16" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="137" s="2" customFormat="1" spans="1:6">
-      <c r="A137" s="13" t="s">
+      <c r="E137" s="16" t="s">
         <v>771</v>
       </c>
-      <c r="B137" s="23" t="s">
+      <c r="F137" s="16" t="s">
         <v>772</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>773</v>
-      </c>
-      <c r="D137" s="16" t="s">
-        <v>774</v>
-      </c>
-      <c r="E137" s="16" t="s">
-        <v>775</v>
-      </c>
-      <c r="F137" s="16" t="s">
-        <v>776</v>
       </c>
     </row>
     <row r="138" s="2" customFormat="1" spans="1:6">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="14" t="s">
+        <v>773</v>
+      </c>
+      <c r="B138" s="24" t="s">
+        <v>774</v>
+      </c>
+      <c r="C138" s="9" t="s">
+        <v>775</v>
+      </c>
+      <c r="D138" s="17" t="s">
+        <v>776</v>
+      </c>
+      <c r="E138" s="17" t="s">
         <v>777</v>
       </c>
-      <c r="B138" s="23" t="s">
+      <c r="F138" s="17" t="s">
         <v>778</v>
       </c>
-      <c r="C138" s="16" t="s">
+    </row>
+    <row r="139" s="2" customFormat="1" spans="1:6">
+      <c r="A139" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="D138" s="16" t="s">
+      <c r="B139" s="24" t="s">
         <v>780</v>
       </c>
-      <c r="E138" s="16" t="s">
+      <c r="C139" s="17" t="s">
         <v>781</v>
       </c>
-      <c r="F138" s="16" t="s">
+      <c r="D139" s="17" t="s">
         <v>782</v>
+      </c>
+      <c r="E139" s="17" t="s">
+        <v>783</v>
+      </c>
+      <c r="F139" s="17" t="s">
+        <v>784</v>
       </c>
     </row>
   </sheetData>
